--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/ACX/acx.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/ACX/acx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\ACX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\ACX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5BD325-19F1-4BD1-ADD8-EC61A3AED207}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B43AA55-8156-4872-919D-529DD5F212FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACX Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>S&amp;P 500 TR Index</t>
+  </si>
+  <si>
+    <t>2021 YTD</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1100,6 +1103,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1416,40 +1422,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X211"/>
+  <dimension ref="A1:X214"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="7"/>
-    <col min="18" max="18" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="7"/>
+    <col min="18" max="18" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,10 +1487,10 @@
         <v>5</v>
       </c>
       <c r="O1" s="6">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>39386</v>
       </c>
@@ -1505,11 +1511,11 @@
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="89">
-        <v>7.2300000000000001E-4</v>
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="P2" s="131"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>39416</v>
       </c>
@@ -1551,12 +1557,12 @@
         <v>7</v>
       </c>
       <c r="O3" s="17">
-        <f>COUNTA(C2:C1311)</f>
-        <v>158</v>
+        <f>COUNTA(C2:C1314)</f>
+        <v>161</v>
       </c>
       <c r="P3" s="131"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>39447</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>39478</v>
       </c>
@@ -1662,23 +1668,23 @@
         <v>9</v>
       </c>
       <c r="S5" s="110">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="T5" s="43">
-        <f t="shared" ref="T5:T11" si="4">SUMIF($A$2:$A$160,$S5,$B$2:$B$160)</f>
-        <v>15035</v>
+        <f t="shared" ref="T5:T11" si="4">SUMIF($A$2:$A$163,$S5,$B$2:$B$163)</f>
+        <v>15764</v>
       </c>
       <c r="U5" s="10">
-        <f t="shared" ref="U5:U11" si="5">SUMIF($A$2:$A$160,$S5,$E$2:$E$160)</f>
-        <v>27039.861037187391</v>
+        <f t="shared" ref="U5:U11" si="5">SUMIF($A$2:$A$163,$S5,$E$2:$E$163)</f>
+        <v>32014.878263129867</v>
       </c>
       <c r="V5" s="23">
-        <f t="shared" ref="V5:V11" si="6">SUMIF($A$2:$A$160,$S5,$K$2:$K$160)</f>
-        <v>13403.786821655836</v>
+        <f t="shared" ref="V5:V11" si="6">SUMIF($A$2:$A$163,$S5,$K$2:$K$163)</f>
+        <v>13646.000025603962</v>
       </c>
       <c r="W5" s="23"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>39507</v>
       </c>
@@ -1720,35 +1726,35 @@
         <v>45</v>
       </c>
       <c r="O6" s="14">
-        <f>STDEV(C3:C160)*SQRT(12)</f>
-        <v>8.9265372409718172E-2</v>
+        <f>STDEV(C3:C163)*SQRT(12)</f>
+        <v>8.889415976490693E-2</v>
       </c>
       <c r="P6" s="28">
-        <f>STDEV(F3:F160)*SQRT(12)</f>
-        <v>0.15926915632697394</v>
+        <f>STDEV(F3:F163)*SQRT(12)</f>
+        <v>0.15823187497632704</v>
       </c>
       <c r="R6" s="22" t="s">
         <v>10</v>
       </c>
       <c r="S6" s="8">
         <f>EOMONTH(O1,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="T6" s="43">
         <f t="shared" si="4"/>
-        <v>15035</v>
+        <v>13986</v>
       </c>
       <c r="U6" s="10">
         <f t="shared" si="5"/>
-        <v>27039.861037187391</v>
+        <v>21740.583495277813</v>
       </c>
       <c r="V6" s="23">
         <f t="shared" si="6"/>
-        <v>13403.786821655836</v>
+        <v>13205.740401725734</v>
       </c>
       <c r="W6" s="23"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>39538</v>
       </c>
@@ -1790,8 +1796,8 @@
         <v>46</v>
       </c>
       <c r="O7" s="17">
-        <f>COVAR(C3:C160,F3:F160)/VAR(F3:F160)</f>
-        <v>8.6652398829498031E-2</v>
+        <f>COVAR(C3:C163,F3:F163)/VAR(F3:F163)</f>
+        <v>8.8900802214935987E-2</v>
       </c>
       <c r="P7" s="29"/>
       <c r="R7" s="22" t="s">
@@ -1799,23 +1805,23 @@
       </c>
       <c r="S7" s="8">
         <f>EOMONTH(O1,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="T7" s="43">
         <f t="shared" si="4"/>
-        <v>14900</v>
+        <v>15340</v>
       </c>
       <c r="U7" s="10">
         <f t="shared" si="5"/>
-        <v>15767.823177247712</v>
+        <v>15980.352110642112</v>
       </c>
       <c r="V7" s="23">
         <f t="shared" si="6"/>
-        <v>14426.023837261431</v>
+        <v>15119.890415167798</v>
       </c>
       <c r="W7" s="23"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>39568</v>
       </c>
@@ -1858,34 +1864,34 @@
       </c>
       <c r="O8" s="14">
         <f>T11/T10-1</f>
-        <v>0.57640000000000002</v>
+        <v>0.66720000000000002</v>
       </c>
       <c r="P8" s="28">
         <f>U11/U10-1</f>
-        <v>2.2014878263129867</v>
+        <v>2.3991756303457135</v>
       </c>
       <c r="R8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="S8" s="8">
         <f>EOMONTH(O1,-120)</f>
-        <v>40543</v>
+        <v>40633</v>
       </c>
       <c r="T8" s="43">
         <f t="shared" si="4"/>
-        <v>14061.5</v>
+        <v>14499.2</v>
       </c>
       <c r="U8" s="10">
         <f t="shared" si="5"/>
-        <v>8723.5060878749937</v>
+        <v>9239.8717647204376</v>
       </c>
       <c r="V8" s="23">
         <f t="shared" si="6"/>
-        <v>12780.843137505932</v>
+        <v>12465.402685852558</v>
       </c>
       <c r="W8" s="23"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>39599</v>
       </c>
@@ -1928,11 +1934,11 @@
       </c>
       <c r="O9" s="14">
         <f>(1+O8)^(12/$O$3)-1</f>
-        <v>3.5172294509063118E-2</v>
+        <v>3.8832832670883555E-2</v>
       </c>
       <c r="P9" s="28">
         <f>(1+P8)^(12/$O$3)-1</f>
-        <v>9.239864689159516E-2</v>
+        <v>9.5482605490599504E-2</v>
       </c>
       <c r="R9" s="73" t="s">
         <v>27</v>
@@ -1956,7 +1962,7 @@
         <v>1146.3599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>39629</v>
       </c>
@@ -1999,7 +2005,7 @@
       </c>
       <c r="O10" s="30">
         <f>((O9-O2)-O7*(P9-O2))*100</f>
-        <v>2.6505379791660384</v>
+        <v>3.0183087887189055</v>
       </c>
       <c r="P10" s="31"/>
       <c r="R10" s="22" t="s">
@@ -2023,7 +2029,7 @@
       </c>
       <c r="W10" s="75"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>39660</v>
       </c>
@@ -2065,8 +2071,8 @@
         <v>48</v>
       </c>
       <c r="O11" s="32">
-        <f>RSQ(C3:C160,F3:F160)</f>
-        <v>2.4208805751558111E-2</v>
+        <f>RSQ(C3:C163,F3:F163)</f>
+        <v>2.5355059651576878E-2</v>
       </c>
       <c r="P11" s="31"/>
       <c r="R11" s="24" t="s">
@@ -2074,26 +2080,26 @@
       </c>
       <c r="S11" s="41">
         <f>O1</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="T11" s="44">
         <f t="shared" si="4"/>
-        <v>15764</v>
+        <v>16672</v>
       </c>
       <c r="U11" s="45">
         <f t="shared" si="5"/>
-        <v>32014.878263129867</v>
+        <v>33991.756303457136</v>
       </c>
       <c r="V11" s="46">
         <f t="shared" si="6"/>
-        <v>13646.000025603962</v>
+        <v>14710.35551060646</v>
       </c>
       <c r="W11" s="77">
         <f>SUMIF(A:A,S11,I:I)</f>
-        <v>1065.93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1149.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>39691</v>
       </c>
@@ -2136,14 +2142,14 @@
       </c>
       <c r="O12" s="17">
         <f>(O9-O2)/O6</f>
-        <v>0.38592002227856814</v>
+        <v>0.43485233195425133</v>
       </c>
       <c r="P12" s="29">
         <f>(P9-O2)/P6</f>
-        <v>0.57560201237826802</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.60231609784601303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>39721</v>
       </c>
@@ -2185,12 +2191,12 @@
         <v>50</v>
       </c>
       <c r="O13" s="7">
-        <f>COUNTIF(C3:C1160,"&gt;0")</f>
-        <v>90</v>
+        <f>COUNTIF(C3:C1163,"&gt;0")</f>
+        <v>93</v>
       </c>
       <c r="P13" s="31">
-        <f>COUNTIF(F3:F1144,"&gt;0")</f>
-        <v>106</v>
+        <f>COUNTIF(F3:F1147,"&gt;0")</f>
+        <v>108</v>
       </c>
       <c r="R13" s="48"/>
       <c r="S13" s="52" t="s">
@@ -2206,7 +2212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>39752</v>
       </c>
@@ -2249,32 +2255,32 @@
       </c>
       <c r="O14" s="33">
         <f>O13/$O$3</f>
-        <v>0.569620253164557</v>
+        <v>0.57763975155279501</v>
       </c>
       <c r="P14" s="34">
         <f>P13/$O$3</f>
-        <v>0.67088607594936711</v>
+        <v>0.67080745341614911</v>
       </c>
       <c r="R14" s="49" t="s">
         <v>9</v>
       </c>
       <c r="S14" s="11">
         <f>T11/T5-1</f>
-        <v>4.8486863984037232E-2</v>
+        <v>5.759959401167225E-2</v>
       </c>
       <c r="T14" s="11">
         <f>U11/U5-1</f>
-        <v>0.18398826898926846</v>
+        <v>6.1748728952811582E-2</v>
       </c>
       <c r="U14" s="11">
         <f>V11/V5-1</f>
-        <v>1.807050553480849E-2</v>
+        <v>7.7997617104312633E-2</v>
       </c>
       <c r="V14" s="114">
-        <v>6.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>39782</v>
       </c>
@@ -2317,11 +2323,11 @@
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="35">
-        <f>MIN(D3:D1144)</f>
+        <f>MIN(D3:D1147)</f>
         <v>-0.13352561589122294</v>
       </c>
       <c r="P15" s="36">
-        <f>MIN(G3:G1144)</f>
+        <f>MIN(G3:G1147)</f>
         <v>-0.50948767777791559</v>
       </c>
       <c r="R15" s="49" t="s">
@@ -2329,21 +2335,21 @@
       </c>
       <c r="S15" s="11">
         <f>T11/T6-1</f>
-        <v>4.8486863984037232E-2</v>
+        <v>0.19204919204919202</v>
       </c>
       <c r="T15" s="11">
         <f>U11/U6-1</f>
-        <v>0.18398826898926846</v>
+        <v>0.56351628330676373</v>
       </c>
       <c r="U15" s="11">
         <f>V11/V6-1</f>
-        <v>1.807050553480849E-2</v>
+        <v>0.11393644453923257</v>
       </c>
       <c r="V15" s="114">
-        <v>6.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>39813</v>
       </c>
@@ -2386,22 +2392,22 @@
       </c>
       <c r="S16" s="11">
         <f>POWER(T11/T7,12/60)-1</f>
-        <v>1.1337314978747015E-2</v>
+        <v>1.679281433361135E-2</v>
       </c>
       <c r="T16" s="11">
         <f>POWER(U11/U7,12/60)-1</f>
-        <v>0.15216856682869984</v>
+        <v>0.16294038412866541</v>
       </c>
       <c r="U16" s="11">
         <f>POWER(V11/V7,12/60)-1</f>
-        <v>-1.1055898558643751E-2</v>
+        <v>-5.4768313280509906E-3</v>
       </c>
       <c r="V16" s="114">
-        <v>1.2E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="X16" s="96"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>39844</v>
       </c>
@@ -2444,21 +2450,21 @@
       </c>
       <c r="S17" s="11">
         <f>POWER(T11/T8,12/120)-1</f>
-        <v>1.1494387884944057E-2</v>
+        <v>1.4061667107870379E-2</v>
       </c>
       <c r="T17" s="11">
         <f>POWER(U11/U8,12/120)-1</f>
-        <v>0.13884882650942365</v>
+        <v>0.13912338106903821</v>
       </c>
       <c r="U17" s="11">
         <f>POWER(V11/V8,12/120)-1</f>
-        <v>6.5713995477645337E-3</v>
+        <v>1.669733599622103E-2</v>
       </c>
       <c r="V17" s="114">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>39872</v>
       </c>
@@ -2501,21 +2507,21 @@
       </c>
       <c r="S18" s="51">
         <f>POWER(T11/T10,12/$O$3)-1</f>
-        <v>3.5172294509063118E-2</v>
+        <v>3.8832832670883555E-2</v>
       </c>
       <c r="T18" s="51">
         <f>POWER(U11/U10,12/$O$3)-1</f>
-        <v>9.239864689159516E-2</v>
+        <v>9.5482605490599504E-2</v>
       </c>
       <c r="U18" s="51">
         <f>POWER(V11/V10,12/$O$3)-1</f>
-        <v>2.3890638503851314E-2</v>
+        <v>2.9185484431001329E-2</v>
       </c>
       <c r="V18" s="115">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>39903</v>
       </c>
@@ -2560,7 +2566,7 @@
       <c r="O19" s="129"/>
       <c r="P19" s="130"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>39933</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>39964</v>
       </c>
@@ -2681,26 +2687,25 @@
       </c>
       <c r="S21" s="64">
         <f>S14*100</f>
-        <v>4.8486863984037232</v>
-      </c>
-      <c r="T21" s="64">
-        <f>S15*100</f>
-        <v>4.8486863984037232</v>
+        <v>5.759959401167225</v>
+      </c>
+      <c r="T21" s="134">
+        <v>19.21</v>
       </c>
       <c r="U21" s="64">
         <f>S16*100</f>
-        <v>1.1337314978747015</v>
+        <v>1.679281433361135</v>
       </c>
       <c r="V21" s="64">
         <f>S17*100</f>
-        <v>1.1494387884944057</v>
+        <v>1.4061667107870379</v>
       </c>
       <c r="W21" s="64">
         <f>S18*100</f>
-        <v>3.5172294509063118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.8832832670883555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>39994</v>
       </c>
@@ -2755,26 +2760,26 @@
       </c>
       <c r="S22" s="62">
         <f>U14*100</f>
-        <v>1.807050553480849</v>
+        <v>7.7997617104312633</v>
       </c>
       <c r="T22" s="62">
         <f>U15*100</f>
-        <v>1.807050553480849</v>
+        <v>11.393644453923258</v>
       </c>
       <c r="U22" s="62">
         <f>U16*100</f>
-        <v>-1.1055898558643751</v>
+        <v>-0.54768313280509906</v>
       </c>
       <c r="V22" s="62">
         <f>U17*100</f>
-        <v>0.65713995477645337</v>
+        <v>1.669733599622103</v>
       </c>
       <c r="W22" s="62">
         <f>U18*100</f>
-        <v>2.3890638503851314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2.9185484431001329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>40025</v>
       </c>
@@ -2829,26 +2834,26 @@
       </c>
       <c r="S23" s="65">
         <f>V14*100</f>
-        <v>0.67</v>
+        <v>0.02</v>
       </c>
       <c r="T23" s="65">
         <f>V15*100</f>
-        <v>0.67</v>
+        <v>0.12</v>
       </c>
       <c r="U23" s="65">
         <f>V16*100</f>
-        <v>1.2</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="V23" s="65">
         <f>V17*100</f>
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="W23" s="65">
         <f>V18*100</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.71000000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>40056</v>
       </c>
@@ -2902,22 +2907,22 @@
         <v>23</v>
       </c>
       <c r="S24" s="55">
-        <v>4.6100000000000003</v>
+        <v>5.7</v>
       </c>
       <c r="T24" s="55">
-        <v>4.6100000000000003</v>
+        <v>18.89</v>
       </c>
       <c r="U24" s="55">
-        <v>0.88</v>
+        <v>1.41</v>
       </c>
       <c r="V24" s="56" t="s">
         <v>24</v>
       </c>
       <c r="W24" s="55">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>40086</v>
       </c>
@@ -2971,22 +2976,22 @@
         <v>25</v>
       </c>
       <c r="S25" s="57">
-        <v>3.79</v>
+        <v>5.5</v>
       </c>
       <c r="T25" s="57">
-        <v>3.79</v>
+        <v>17.95</v>
       </c>
       <c r="U25" s="57">
-        <v>0.13</v>
+        <v>0.66</v>
       </c>
       <c r="V25" s="58" t="s">
         <v>24</v>
       </c>
       <c r="W25" s="57">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>40117</v>
       </c>
@@ -3041,25 +3046,25 @@
       </c>
       <c r="S26" s="62">
         <f t="shared" ref="S26:U27" si="7">S22</f>
-        <v>1.807050553480849</v>
+        <v>7.7997617104312633</v>
       </c>
       <c r="T26" s="62">
         <f t="shared" si="7"/>
-        <v>1.807050553480849</v>
+        <v>11.393644453923258</v>
       </c>
       <c r="U26" s="62">
         <f t="shared" si="7"/>
-        <v>-1.1055898558643751</v>
+        <v>-0.54768313280509906</v>
       </c>
       <c r="V26" s="58" t="s">
         <v>24</v>
       </c>
       <c r="W26" s="62">
         <f>(POWER(W11/W9,365/(S11-S9))-1)*100</f>
-        <v>-1.3407817765194174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <v>4.1906847476802511E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>40147</v>
       </c>
@@ -3114,24 +3119,24 @@
       </c>
       <c r="S27" s="62">
         <f t="shared" si="7"/>
-        <v>0.67</v>
+        <v>0.02</v>
       </c>
       <c r="T27" s="62">
         <f t="shared" si="7"/>
-        <v>0.67</v>
+        <v>0.12</v>
       </c>
       <c r="U27" s="62">
         <f t="shared" si="7"/>
-        <v>1.2</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="V27" s="58" t="s">
         <v>24</v>
       </c>
       <c r="W27" s="59">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>40178</v>
       </c>
@@ -3184,22 +3189,22 @@
         <v>53</v>
       </c>
       <c r="S28" s="60">
-        <v>-1.38</v>
+        <v>-0.38</v>
       </c>
       <c r="T28" s="60">
-        <v>-1.38</v>
+        <v>12.07</v>
       </c>
       <c r="U28" s="60">
-        <v>-0.31</v>
+        <v>0.22</v>
       </c>
       <c r="V28" s="61" t="s">
         <v>24</v>
       </c>
       <c r="W28" s="60">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>40209</v>
       </c>
@@ -3249,7 +3254,7 @@
       </c>
       <c r="P29" s="108"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>40237</v>
       </c>
@@ -3306,7 +3311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>40268</v>
       </c>
@@ -3360,14 +3365,14 @@
       </c>
       <c r="S31" s="83">
         <f>O6</f>
-        <v>8.9265372409718172E-2</v>
+        <v>8.889415976490693E-2</v>
       </c>
       <c r="T31" s="84">
         <f>P6</f>
-        <v>0.15926915632697394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.15823187497632704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>40298</v>
       </c>
@@ -3421,14 +3426,14 @@
       </c>
       <c r="S32" s="87">
         <f>O12</f>
-        <v>0.38592002227856814</v>
+        <v>0.43485233195425133</v>
       </c>
       <c r="T32" s="88">
         <f>P12</f>
-        <v>0.57560201237826802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.60231609784601303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>40329</v>
       </c>
@@ -3465,30 +3470,30 @@
         <f t="shared" si="3"/>
         <v>12209.619397539471</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="39">
         <v>2020</v>
       </c>
-      <c r="N33" s="109">
-        <f>S14</f>
+      <c r="N33" s="14">
+        <f>B160/B148-1</f>
         <v>4.8486863984037232E-2</v>
       </c>
-      <c r="O33" s="109">
-        <f>T14</f>
+      <c r="O33" s="14">
+        <f>E160/E148-1</f>
         <v>0.18398826898926846</v>
       </c>
-      <c r="P33" s="36"/>
+      <c r="P33" s="108"/>
       <c r="R33" s="81" t="s">
         <v>54</v>
       </c>
       <c r="S33" s="87">
         <f>O10</f>
-        <v>2.6505379791660384</v>
+        <v>3.0183087887189055</v>
       </c>
       <c r="T33" s="85" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>40359</v>
       </c>
@@ -3525,18 +3530,30 @@
         <f t="shared" si="3"/>
         <v>12274.269327768754</v>
       </c>
+      <c r="M34" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="109">
+        <f>S14</f>
+        <v>5.759959401167225E-2</v>
+      </c>
+      <c r="O34" s="109">
+        <f>T14</f>
+        <v>6.1748728952811582E-2</v>
+      </c>
+      <c r="P34" s="36"/>
       <c r="R34" s="81" t="s">
         <v>55</v>
       </c>
       <c r="S34" s="87">
         <f>O7</f>
-        <v>8.6652398829498031E-2</v>
+        <v>8.8900802214935987E-2</v>
       </c>
       <c r="T34" s="85" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>40390</v>
       </c>
@@ -3573,24 +3590,18 @@
         <f t="shared" si="3"/>
         <v>11982.640533585967</v>
       </c>
-      <c r="M35" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="N35" s="129"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="130"/>
       <c r="R35" s="81" t="s">
         <v>56</v>
       </c>
       <c r="S35" s="87">
         <f>O11</f>
-        <v>2.4208805751558111E-2</v>
+        <v>2.5355059651576878E-2</v>
       </c>
       <c r="T35" s="85" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>40421</v>
       </c>
@@ -3627,14 +3638,12 @@
         <f t="shared" si="3"/>
         <v>12324.325016322515</v>
       </c>
-      <c r="M36" s="94"/>
-      <c r="N36" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="O36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P36" s="31"/>
+      <c r="M36" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="130"/>
       <c r="R36" s="82" t="s">
         <v>32</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>-0.50948767777791559</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>40451</v>
       </c>
@@ -3684,18 +3693,16 @@
         <f t="shared" si="3"/>
         <v>12431.349455276339</v>
       </c>
-      <c r="M37" s="113">
-        <v>39752</v>
-      </c>
-      <c r="N37" s="101">
-        <v>4.0012925790755549E-3</v>
-      </c>
-      <c r="O37" s="102">
-        <v>-0.16795061887570917</v>
+      <c r="M37" s="94"/>
+      <c r="N37" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="P37" s="31"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>40482</v>
       </c>
@@ -3733,17 +3740,17 @@
         <v>12871.097000499287</v>
       </c>
       <c r="M38" s="113">
-        <v>43921</v>
+        <v>39752</v>
       </c>
       <c r="N38" s="101">
-        <v>-5.3913278766150263E-2</v>
+        <v>4.0012925790755549E-3</v>
       </c>
       <c r="O38" s="102">
-        <v>-0.12351353104680352</v>
+        <v>-0.16795061887570917</v>
       </c>
       <c r="P38" s="31"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>40512</v>
       </c>
@@ -3781,17 +3788,17 @@
         <v>12282.206546925618</v>
       </c>
       <c r="M39" s="113">
-        <v>39872</v>
+        <v>43921</v>
       </c>
       <c r="N39" s="101">
-        <v>8.0938891137192215E-3</v>
+        <v>-5.3913278766150263E-2</v>
       </c>
       <c r="O39" s="102">
-        <v>-0.10647796709532442</v>
+        <v>-0.12351353104680352</v>
       </c>
       <c r="P39" s="31"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>40543</v>
       </c>
@@ -3829,20 +3836,20 @@
         <v>12780.843137505932</v>
       </c>
       <c r="M40" s="113">
-        <v>43465</v>
+        <v>39872</v>
       </c>
       <c r="N40" s="101">
-        <v>2.0631018233967513E-3</v>
+        <v>8.0938891137192215E-3</v>
       </c>
       <c r="O40" s="102">
-        <v>-9.028985692409619E-2</v>
+        <v>-0.10647796709532442</v>
       </c>
       <c r="P40" s="31"/>
       <c r="R40" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40574</v>
       </c>
@@ -3880,29 +3887,29 @@
         <v>12801.966382036291</v>
       </c>
       <c r="M41" s="113">
-        <v>39721</v>
+        <v>43465</v>
       </c>
       <c r="N41" s="101">
-        <v>-3.1106690977402041E-2</v>
+        <v>2.0631018233967513E-3</v>
       </c>
       <c r="O41" s="102">
-        <v>-8.9105616262056264E-2</v>
+        <v>-9.028985692409619E-2</v>
       </c>
       <c r="P41" s="31"/>
       <c r="R41" s="103">
-        <f>M37</f>
+        <f>M38</f>
         <v>39752</v>
       </c>
       <c r="S41" s="104">
-        <f>N37</f>
+        <f>N38</f>
         <v>4.0012925790755549E-3</v>
       </c>
       <c r="T41" s="105">
-        <f>O37</f>
+        <f>O38</f>
         <v>-0.16795061887570917</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40602</v>
       </c>
@@ -3940,17 +3947,17 @@
         <v>12935.490891400928</v>
       </c>
       <c r="M42" s="113">
-        <v>39629</v>
+        <v>39721</v>
       </c>
       <c r="N42" s="101">
-        <v>6.400134386023848E-2</v>
+        <v>-3.1106690977402041E-2</v>
       </c>
       <c r="O42" s="102">
-        <v>-8.4304710389903059E-2</v>
+        <v>-8.9105616262056264E-2</v>
       </c>
       <c r="P42" s="31"/>
       <c r="R42" s="103">
-        <f t="shared" ref="R42:T57" si="8">M38</f>
+        <f t="shared" ref="R42:T57" si="8">M39</f>
         <v>43921</v>
       </c>
       <c r="S42" s="104">
@@ -3962,7 +3969,7 @@
         <v>-0.12351353104680352</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>40633</v>
       </c>
@@ -4000,13 +4007,13 @@
         <v>12465.402685852558</v>
       </c>
       <c r="M43" s="113">
-        <v>39844</v>
+        <v>39629</v>
       </c>
       <c r="N43" s="101">
-        <v>4.2022982940053133E-3</v>
+        <v>6.400134386023848E-2</v>
       </c>
       <c r="O43" s="102">
-        <v>-8.4288840864981007E-2</v>
+        <v>-8.4304710389903059E-2</v>
       </c>
       <c r="P43" s="31"/>
       <c r="R43" s="103">
@@ -4022,7 +4029,7 @@
         <v>-0.10647796709532442</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>40663</v>
       </c>
@@ -4060,13 +4067,13 @@
         <v>12835.379514293405</v>
       </c>
       <c r="M44" s="113">
-        <v>43890</v>
+        <v>39844</v>
       </c>
       <c r="N44" s="101">
-        <v>-3.6938110749185626E-2</v>
+        <v>4.2022982940053133E-3</v>
       </c>
       <c r="O44" s="102">
-        <v>-8.2318729964890869E-2</v>
+        <v>-8.4288840864981007E-2</v>
       </c>
       <c r="P44" s="31"/>
       <c r="R44" s="103">
@@ -4082,7 +4089,7 @@
         <v>-9.028985692409619E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>40694</v>
       </c>
@@ -4120,13 +4127,13 @@
         <v>12383.726140335164</v>
       </c>
       <c r="M45" s="113">
-        <v>40329</v>
+        <v>43890</v>
       </c>
       <c r="N45" s="101">
-        <v>-3.9697057218959553E-2</v>
+        <v>-3.6938110749185626E-2</v>
       </c>
       <c r="O45" s="102">
-        <v>-7.985053760707661E-2</v>
+        <v>-8.2318729964890869E-2</v>
       </c>
       <c r="P45" s="31"/>
       <c r="R45" s="103">
@@ -4142,7 +4149,7 @@
         <v>-8.9105616262056264E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>40724</v>
       </c>
@@ -4180,13 +4187,13 @@
         <v>11999.923188201716</v>
       </c>
       <c r="M46" s="113">
-        <v>39782</v>
+        <v>40329</v>
       </c>
       <c r="N46" s="101">
-        <v>7.2805929740526354E-2</v>
+        <v>-3.9697057218959553E-2</v>
       </c>
       <c r="O46" s="102">
-        <v>-7.1751861106268633E-2</v>
+        <v>-7.985053760707661E-2</v>
       </c>
       <c r="P46" s="31"/>
       <c r="R46" s="103">
@@ -4202,7 +4209,7 @@
         <v>-8.4304710389903059E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>40755</v>
       </c>
@@ -4240,13 +4247,13 @@
         <v>12374.764763867739</v>
       </c>
       <c r="M47" s="113">
-        <v>40816</v>
+        <v>39782</v>
       </c>
       <c r="N47" s="101">
-        <v>-3.919919919919912E-2</v>
+        <v>7.2805929740526354E-2</v>
       </c>
       <c r="O47" s="102">
-        <v>-7.0296324117143039E-2</v>
+        <v>-7.1751861106268633E-2</v>
       </c>
       <c r="P47" s="31"/>
       <c r="R47" s="103">
@@ -4262,7 +4269,7 @@
         <v>-8.4288840864981007E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>40786</v>
       </c>
@@ -4300,13 +4307,13 @@
         <v>12381.293766722578</v>
       </c>
       <c r="M48" s="113">
-        <v>43404</v>
+        <v>40816</v>
       </c>
       <c r="N48" s="101">
-        <v>-1.4285878332600421E-2</v>
+        <v>-3.919919919919912E-2</v>
       </c>
       <c r="O48" s="102">
-        <v>-6.8350042162466096E-2</v>
+        <v>-7.0296324117143039E-2</v>
       </c>
       <c r="P48" s="31"/>
       <c r="R48" s="103">
@@ -4322,7 +4329,7 @@
         <v>-8.2318729964890869E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>40816</v>
       </c>
@@ -4360,13 +4367,13 @@
         <v>12631.060130836106</v>
       </c>
       <c r="M49" s="113">
-        <v>43616</v>
+        <v>43404</v>
       </c>
       <c r="N49" s="101">
-        <v>-8.0000000000000071E-3</v>
+        <v>-1.4285878332600421E-2</v>
       </c>
       <c r="O49" s="102">
-        <v>-6.3548027506824978E-2</v>
+        <v>-6.8350042162466096E-2</v>
       </c>
       <c r="P49" s="31"/>
       <c r="R49" s="103">
@@ -4382,7 +4389,7 @@
         <v>-7.985053760707661E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>40847</v>
       </c>
@@ -4420,13 +4427,13 @@
         <v>12103.36307656857</v>
       </c>
       <c r="M50" s="113">
-        <v>42247</v>
+        <v>43616</v>
       </c>
       <c r="N50" s="101">
-        <v>-3.1800350555045487E-2</v>
+        <v>-8.0000000000000071E-3</v>
       </c>
       <c r="O50" s="102">
-        <v>-6.0334206068073382E-2</v>
+        <v>-6.3548027506824978E-2</v>
       </c>
       <c r="P50" s="31"/>
       <c r="R50" s="103">
@@ -4442,7 +4449,7 @@
         <v>-7.1751861106268633E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>40877</v>
       </c>
@@ -4480,13 +4487,13 @@
         <v>12153.674804449973</v>
       </c>
       <c r="M51" s="113">
-        <v>41060</v>
+        <v>42247</v>
       </c>
       <c r="N51" s="101">
-        <v>-1.3002983489494913E-2</v>
+        <v>-3.1800350555045487E-2</v>
       </c>
       <c r="O51" s="102">
-        <v>-6.0101348833743184E-2</v>
+        <v>-6.0334206068073382E-2</v>
       </c>
       <c r="P51" s="31"/>
       <c r="R51" s="103">
@@ -4502,7 +4509,7 @@
         <v>-7.0296324117143039E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>40908</v>
       </c>
@@ -4540,13 +4547,13 @@
         <v>12161.099944951555</v>
       </c>
       <c r="M52" s="113">
-        <v>39478</v>
+        <v>41060</v>
       </c>
       <c r="N52" s="101">
-        <v>7.399463806970541E-3</v>
+        <v>-1.3002983489494913E-2</v>
       </c>
       <c r="O52" s="102">
-        <v>-5.998100796538075E-2</v>
+        <v>-6.0101348833743184E-2</v>
       </c>
       <c r="P52" s="31"/>
       <c r="R52" s="103">
@@ -4562,7 +4569,7 @@
         <v>-6.8350042162466096E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>40939</v>
       </c>
@@ -4600,13 +4607,13 @@
         <v>12123.718203116008</v>
       </c>
       <c r="M53" s="113">
-        <v>40786</v>
+        <v>39478</v>
       </c>
       <c r="N53" s="101">
-        <v>9.3967869051228003E-3</v>
+        <v>7.399463806970541E-3</v>
       </c>
       <c r="O53" s="102">
-        <v>-5.432406833995107E-2</v>
+        <v>-5.998100796538075E-2</v>
       </c>
       <c r="P53" s="31"/>
       <c r="R53" s="103">
@@ -4622,7 +4629,7 @@
         <v>-6.3548027506824978E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>40968</v>
       </c>
@@ -4660,13 +4667,13 @@
         <v>12238.167782571414</v>
       </c>
       <c r="M54" s="113">
-        <v>40359</v>
+        <v>40786</v>
       </c>
       <c r="N54" s="101">
-        <v>9.3988103194759809E-3</v>
+        <v>9.3967869051228003E-3</v>
       </c>
       <c r="O54" s="102">
-        <v>-5.234864473640588E-2</v>
+        <v>-5.432406833995107E-2</v>
       </c>
       <c r="P54" s="31"/>
       <c r="R54" s="103">
@@ -4682,7 +4689,7 @@
         <v>-6.0334206068073382E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>40999</v>
       </c>
@@ -4720,13 +4727,13 @@
         <v>12065.341236413924</v>
       </c>
       <c r="M55" s="113">
-        <v>42400</v>
+        <v>40359</v>
       </c>
       <c r="N55" s="101">
-        <v>5.8389261744966392E-2</v>
+        <v>9.3988103194759809E-3</v>
       </c>
       <c r="O55" s="102">
-        <v>-4.9623194473518928E-2</v>
+        <v>-5.234864473640588E-2</v>
       </c>
       <c r="P55" s="31"/>
       <c r="R55" s="103">
@@ -4742,7 +4749,7 @@
         <v>-6.0101348833743184E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>41029</v>
       </c>
@@ -4780,13 +4787,13 @@
         <v>11918.886741003429</v>
       </c>
       <c r="M56" s="113">
-        <v>40421</v>
+        <v>42400</v>
       </c>
       <c r="N56" s="101">
-        <v>1.4997218257903677E-2</v>
+        <v>5.8389261744966392E-2</v>
       </c>
       <c r="O56" s="102">
-        <v>-4.5140023972976007E-2</v>
+        <v>-4.9623194473518928E-2</v>
       </c>
       <c r="P56" s="31"/>
       <c r="R56" s="103">
@@ -4802,7 +4809,7 @@
         <v>-5.998100796538075E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>41060</v>
       </c>
@@ -4840,13 +4847,13 @@
         <v>12217.428597032515</v>
       </c>
       <c r="M57" s="113">
-        <v>39416</v>
+        <v>40421</v>
       </c>
       <c r="N57" s="101">
-        <v>-1.5499999999999958E-2</v>
+        <v>1.4997218257903677E-2</v>
       </c>
       <c r="O57" s="102">
-        <v>-4.1808497031361469E-2</v>
+        <v>-4.5140023972976007E-2</v>
       </c>
       <c r="P57" s="31"/>
       <c r="R57" s="103">
@@ -4862,7 +4869,7 @@
         <v>-5.432406833995107E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>41090</v>
       </c>
@@ -4900,17 +4907,17 @@
         <v>11530.475080972446</v>
       </c>
       <c r="M58" s="113">
-        <v>44104</v>
+        <v>39416</v>
       </c>
       <c r="N58" s="101">
-        <v>-6.3586552120679096E-3</v>
+        <v>-1.5499999999999958E-2</v>
       </c>
       <c r="O58" s="102">
-        <v>-3.7997194147475488E-2</v>
+        <v>-4.1808497031361469E-2</v>
       </c>
       <c r="P58" s="31"/>
       <c r="R58" s="103">
-        <f t="shared" ref="R58:T67" si="9">M54</f>
+        <f t="shared" ref="R58:T67" si="9">M55</f>
         <v>40359</v>
       </c>
       <c r="S58" s="104">
@@ -4922,7 +4929,7 @@
         <v>-5.234864473640588E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>41121</v>
       </c>
@@ -4960,13 +4967,13 @@
         <v>11687.555208480035</v>
       </c>
       <c r="M59" s="113">
-        <v>43159</v>
+        <v>44104</v>
       </c>
       <c r="N59" s="101">
-        <v>-3.1826754851693506E-2</v>
+        <v>-6.3586552120679096E-3</v>
       </c>
       <c r="O59" s="102">
-        <v>-3.6855790289246793E-2</v>
+        <v>-3.7997194147475488E-2</v>
       </c>
       <c r="P59" s="31"/>
       <c r="R59" s="103">
@@ -4982,7 +4989,7 @@
         <v>-4.9623194473518928E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>41152</v>
       </c>
@@ -5020,13 +5027,13 @@
         <v>11511.784210054677</v>
       </c>
       <c r="M60" s="113">
-        <v>40209</v>
+        <v>43159</v>
       </c>
       <c r="N60" s="101">
-        <v>-3.5198175643853968E-2</v>
+        <v>-3.1826754851693506E-2</v>
       </c>
       <c r="O60" s="102">
-        <v>-3.5972789115646164E-2</v>
+        <v>-3.6855790289246793E-2</v>
       </c>
       <c r="P60" s="31"/>
       <c r="R60" s="103">
@@ -5042,7 +5049,7 @@
         <v>-4.5140023972976007E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>41182</v>
       </c>
@@ -5080,13 +5087,13 @@
         <v>11359.824869099906</v>
       </c>
       <c r="M61" s="113">
-        <v>41670</v>
+        <v>40209</v>
       </c>
       <c r="N61" s="101">
-        <v>-2.8959515479376474E-3</v>
+        <v>-3.5198175643853968E-2</v>
       </c>
       <c r="O61" s="102">
-        <v>-3.4576048305128282E-2</v>
+        <v>-3.5972789115646164E-2</v>
       </c>
       <c r="P61" s="31"/>
       <c r="R61" s="103">
@@ -5102,7 +5109,7 @@
         <v>-4.1808497031361469E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>41213</v>
       </c>
@@ -5140,13 +5147,13 @@
         <v>11085.73476886051</v>
       </c>
       <c r="M62" s="113">
-        <v>39507</v>
+        <v>41670</v>
       </c>
       <c r="N62" s="101">
-        <v>0.14060231869471806</v>
+        <v>-2.8959515479376474E-3</v>
       </c>
       <c r="O62" s="102">
-        <v>-3.2487660869966462E-2</v>
+        <v>-3.4576048305128282E-2</v>
       </c>
       <c r="P62" s="31"/>
       <c r="R62" s="103">
@@ -5162,7 +5169,7 @@
         <v>-3.7997194147475488E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>41243</v>
       </c>
@@ -5200,13 +5207,13 @@
         <v>11013.275639138184</v>
       </c>
       <c r="M63" s="113">
-        <v>42035</v>
+        <v>39507</v>
       </c>
       <c r="N63" s="101">
-        <v>5.3596811690468149E-2</v>
+        <v>0.14060231869471806</v>
       </c>
       <c r="O63" s="102">
-        <v>-3.0020374379218118E-2</v>
+        <v>-3.2487660869966462E-2</v>
       </c>
       <c r="P63" s="31"/>
       <c r="R63" s="103">
@@ -5222,7 +5229,7 @@
         <v>-3.6855790289246793E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>41274</v>
       </c>
@@ -5259,18 +5266,16 @@
         <f t="shared" si="3"/>
         <v>11194.167424116358</v>
       </c>
-      <c r="M64" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N64" s="98">
-        <f>AVERAGE(N37:N63)</f>
-        <v>3.3046459365554393E-3</v>
-      </c>
-      <c r="O64" s="98">
-        <f>AVERAGE(O37:O63)</f>
-        <v>-6.7171018979690231E-2</v>
-      </c>
-      <c r="P64" s="97"/>
+      <c r="M64" s="113">
+        <v>42035</v>
+      </c>
+      <c r="N64" s="101">
+        <v>5.3596811690468149E-2</v>
+      </c>
+      <c r="O64" s="102">
+        <v>-3.0020374379218118E-2</v>
+      </c>
+      <c r="P64" s="31"/>
       <c r="R64" s="103">
         <f t="shared" si="9"/>
         <v>40209</v>
@@ -5284,7 +5289,7 @@
         <v>-3.5972789115646164E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>41305</v>
       </c>
@@ -5321,7 +5326,18 @@
         <f t="shared" si="3"/>
         <v>11439.197060668532</v>
       </c>
-      <c r="P65" s="91"/>
+      <c r="M65" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N65" s="98">
+        <f>AVERAGE(N38:N64)</f>
+        <v>3.3046459365554393E-3</v>
+      </c>
+      <c r="O65" s="98">
+        <f>AVERAGE(O38:O64)</f>
+        <v>-6.7171018979690231E-2</v>
+      </c>
+      <c r="P65" s="97"/>
       <c r="R65" s="103">
         <f t="shared" si="9"/>
         <v>41670</v>
@@ -5335,7 +5351,7 @@
         <v>-3.4576048305128282E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>41333</v>
       </c>
@@ -5386,7 +5402,7 @@
         <v>-3.2487660869966462E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>41364</v>
       </c>
@@ -5437,7 +5453,7 @@
         <v>-3.0020374379218118E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>41394</v>
       </c>
@@ -5479,15 +5495,15 @@
         <v>34</v>
       </c>
       <c r="S68" s="100">
-        <f>N64</f>
+        <f>N65</f>
         <v>3.3046459365554393E-3</v>
       </c>
       <c r="T68" s="100">
-        <f>O64</f>
+        <f>O65</f>
         <v>-6.7171018979690231E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>41425</v>
       </c>
@@ -5524,8 +5540,9 @@
         <f t="shared" si="13"/>
         <v>11801.492709280159</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P69" s="91"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>41455</v>
       </c>
@@ -5563,7 +5580,7 @@
         <v>11883.041235133729</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>41486</v>
       </c>
@@ -5601,7 +5618,7 @@
         <v>11740.043270646383</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>41517</v>
       </c>
@@ -5639,7 +5656,7 @@
         <v>11646.076837402237</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>41547</v>
       </c>
@@ -5677,7 +5694,7 @@
         <v>11610.487370860175</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>41578</v>
       </c>
@@ -5715,7 +5732,7 @@
         <v>11556.463072727984</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>41608</v>
       </c>
@@ -5753,7 +5770,7 @@
         <v>11912.10169882095</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>41639</v>
       </c>
@@ -5791,7 +5808,7 @@
         <v>12032.056123820632</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>41670</v>
       </c>
@@ -5829,7 +5846,7 @@
         <v>11617.016373715016</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>41698</v>
       </c>
@@ -5867,7 +5884,7 @@
         <v>11570.801275075866</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>41729</v>
       </c>
@@ -5905,7 +5922,7 @@
         <v>11426.395094286496</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>41759</v>
       </c>
@@ -5943,7 +5960,7 @@
         <v>11448.54249612742</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>41790</v>
       </c>
@@ -5981,7 +5998,7 @@
         <v>11502.182735268154</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>41820</v>
       </c>
@@ -6019,7 +6036,7 @@
         <v>11502.438774595796</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>41851</v>
       </c>
@@ -6057,7 +6074,7 @@
         <v>11528.554786015149</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>41882</v>
       </c>
@@ -6095,7 +6112,7 @@
         <v>11901.348047060048</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>41912</v>
       </c>
@@ -6133,7 +6150,7 @@
         <v>12411.506407384195</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>41943</v>
       </c>
@@ -6171,7 +6188,7 @@
         <v>12552.712096578056</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>41973</v>
       </c>
@@ -6209,7 +6226,7 @@
         <v>13457.171021468923</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>42004</v>
       </c>
@@ -6247,7 +6264,7 @@
         <v>13929.69160062988</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>42035</v>
       </c>
@@ -6285,7 +6302,7 @@
         <v>15071.755021571338</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>42063</v>
       </c>
@@ -6323,7 +6340,7 @@
         <v>14874.604739287981</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>42094</v>
       </c>
@@ -6361,7 +6378,7 @@
         <v>15511.118507802825</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>42124</v>
       </c>
@@ -6399,7 +6416,7 @@
         <v>14896.368082137442</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>42155</v>
       </c>
@@ -6437,7 +6454,7 @@
         <v>15017.218644783865</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>42185</v>
       </c>
@@ -6475,7 +6492,7 @@
         <v>14347.035704684266</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>42216</v>
       </c>
@@ -6513,7 +6530,7 @@
         <v>14721.621241022649</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>42247</v>
       </c>
@@ -6551,7 +6568,7 @@
         <v>14466.862110020125</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>42277</v>
       </c>
@@ -6589,7 +6606,7 @@
         <v>14803.553825867681</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>42308</v>
       </c>
@@ -6627,7 +6644,7 @@
         <v>14229.385633633354</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>42338</v>
       </c>
@@ -6665,7 +6682,7 @@
         <v>14525.367096386033</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>42369</v>
       </c>
@@ -6703,7 +6720,7 @@
         <v>14426.023837261431</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>42400</v>
       </c>
@@ -6741,7 +6758,7 @@
         <v>14903.537183311388</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>42429</v>
       </c>
@@ -6779,7 +6796,7 @@
         <v>15355.702635924908</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>42460</v>
       </c>
@@ -6817,7 +6834,7 @@
         <v>15119.890415167798</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>42490</v>
       </c>
@@ -6855,7 +6872,7 @@
         <v>15205.535570263623</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>42521</v>
       </c>
@@ -6893,7 +6910,7 @@
         <v>14745.688937820878</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>42551</v>
       </c>
@@ -6931,7 +6948,7 @@
         <v>15327.666329548247</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>42582</v>
       </c>
@@ -6969,7 +6986,7 @@
         <v>15334.195332403086</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>42613</v>
       </c>
@@ -7007,7 +7024,7 @@
         <v>14947.575947665589</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>42643</v>
       </c>
@@ -7045,7 +7062,7 @@
         <v>15015.426369490382</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>42674</v>
       </c>
@@ -7083,7 +7100,7 @@
         <v>14717.652631444218</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>42704</v>
       </c>
@@ -7121,7 +7138,7 @@
         <v>14892.911551214293</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>42735</v>
       </c>
@@ -7159,7 +7176,7 @@
         <v>15030.020611165901</v>
       </c>
     </row>
-    <row r="113" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>42766</v>
       </c>
@@ -7197,7 +7214,7 @@
         <v>14577.215060233279</v>
       </c>
     </row>
-    <row r="114" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>42794</v>
       </c>
@@ -7235,7 +7252,7 @@
         <v>14696.785426241498</v>
       </c>
     </row>
-    <row r="115" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>42825</v>
       </c>
@@ -7273,7 +7290,7 @@
         <v>14408.869202309501</v>
       </c>
     </row>
-    <row r="116" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>42855</v>
       </c>
@@ -7312,7 +7329,7 @@
         <v>14229.641672960994</v>
       </c>
     </row>
-    <row r="117" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>42886</v>
       </c>
@@ -7351,7 +7368,7 @@
         <v>14245.260071947079</v>
       </c>
     </row>
-    <row r="118" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>42916</v>
       </c>
@@ -7390,7 +7407,7 @@
         <v>13967.969480112173</v>
       </c>
     </row>
-    <row r="119" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>42947</v>
       </c>
@@ -7429,7 +7446,7 @@
         <v>14320.151575281992</v>
       </c>
     </row>
-    <row r="120" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>42978</v>
       </c>
@@ -7468,7 +7485,7 @@
         <v>14646.985777015378</v>
       </c>
     </row>
-    <row r="121" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>43008</v>
       </c>
@@ -7507,7 +7524,7 @@
         <v>14223.240689769977</v>
       </c>
     </row>
-    <row r="122" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <f>EOMONTH(A121,1)</f>
         <v>43039</v>
@@ -7547,9 +7564,9 @@
         <v>14395.555157272187</v>
       </c>
     </row>
-    <row r="123" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
-        <f t="shared" ref="A123:A160" si="14">EOMONTH(A122,1)</f>
+        <f t="shared" ref="A123:A163" si="14">EOMONTH(A122,1)</f>
         <v>43069</v>
       </c>
       <c r="B123" s="111">
@@ -7587,7 +7604,7 @@
         <v>14507.060284459723</v>
       </c>
     </row>
-    <row r="124" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <f t="shared" si="14"/>
         <v>43100</v>
@@ -7627,7 +7644,7 @@
         <v>14691.408600361045</v>
       </c>
     </row>
-    <row r="125" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <f t="shared" si="14"/>
         <v>43131</v>
@@ -7667,7 +7684,7 @@
         <v>15580.633185257288</v>
       </c>
     </row>
-    <row r="126" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <f t="shared" si="14"/>
         <v>43159</v>
@@ -7707,7 +7724,7 @@
         <v>14320.151575281992</v>
       </c>
     </row>
-    <row r="127" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <f t="shared" si="14"/>
         <v>43190</v>
@@ -7747,7 +7764,7 @@
         <v>13941.59742936518</v>
       </c>
     </row>
-    <row r="128" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <f t="shared" si="14"/>
         <v>43220</v>
@@ -7787,7 +7804,7 @@
         <v>13518.36442077506</v>
       </c>
     </row>
-    <row r="129" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <f t="shared" si="14"/>
         <v>43251</v>
@@ -7827,7 +7844,7 @@
         <v>13368.197355113774</v>
       </c>
     </row>
-    <row r="130" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <f t="shared" si="14"/>
         <v>43281</v>
@@ -7867,7 +7884,7 @@
         <v>13532.446583795301</v>
       </c>
     </row>
-    <row r="131" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <f t="shared" si="14"/>
         <v>43312</v>
@@ -7907,7 +7924,7 @@
         <v>13449.233802312065</v>
       </c>
     </row>
-    <row r="132" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <f t="shared" si="14"/>
         <v>43343</v>
@@ -7916,7 +7933,7 @@
         <v>14814.2</v>
       </c>
       <c r="C132" s="90">
-        <f t="shared" ref="C132:C160" si="15">B132/B131-1</f>
+        <f t="shared" ref="C132:C163" si="15">B132/B131-1</f>
         <v>3.4103570545622741E-3</v>
       </c>
       <c r="D132" s="90">
@@ -7924,7 +7941,7 @@
         <v>-7.2373199749530326E-2</v>
       </c>
       <c r="E132" s="9">
-        <f t="shared" ref="E132:E160" si="16">E131*(1+F132)</f>
+        <f t="shared" ref="E132:E163" si="16">E131*(1+F132)</f>
         <v>23645.133207078514</v>
       </c>
       <c r="F132" s="112">
@@ -7939,15 +7956,15 @@
         <v>1065.17</v>
       </c>
       <c r="J132" s="11">
-        <f t="shared" ref="J132:J160" si="17">I132/I131-1</f>
+        <f t="shared" ref="J132:J163" si="17">I132/I131-1</f>
         <v>1.3906868717636467E-2</v>
       </c>
       <c r="K132" s="16">
-        <f t="shared" ref="K132:K160" si="18">K131*(1+J132)</f>
+        <f t="shared" ref="K132:K163" si="18">K131*(1+J132)</f>
         <v>13636.270531153617</v>
       </c>
     </row>
-    <row r="133" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <f t="shared" si="14"/>
         <v>43373</v>
@@ -7987,7 +8004,7 @@
         <v>13559.20269353376</v>
       </c>
     </row>
-    <row r="134" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <f t="shared" si="14"/>
         <v>43404</v>
@@ -8027,7 +8044,7 @@
         <v>13371.141807381646</v>
       </c>
     </row>
-    <row r="135" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <f t="shared" si="14"/>
         <v>43434</v>
@@ -8067,7 +8084,7 @@
         <v>13252.979657675451</v>
       </c>
     </row>
-    <row r="136" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <f t="shared" si="14"/>
         <v>43465</v>
@@ -8107,7 +8124,7 @@
         <v>14044.653258740575</v>
       </c>
     </row>
-    <row r="137" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <f t="shared" si="14"/>
         <v>43496</v>
@@ -8147,7 +8164,7 @@
         <v>13455.378746175444</v>
       </c>
     </row>
-    <row r="138" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <f t="shared" si="14"/>
         <v>43524</v>
@@ -8187,7 +8204,7 @@
         <v>13295.994264719091</v>
       </c>
     </row>
-    <row r="139" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <f t="shared" si="14"/>
         <v>43555</v>
@@ -8227,7 +8244,7 @@
         <v>13622.060348469557</v>
       </c>
     </row>
-    <row r="140" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <f t="shared" si="14"/>
         <v>43585</v>
@@ -8267,7 +8284,7 @@
         <v>13689.910770294349</v>
       </c>
     </row>
-    <row r="141" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <f t="shared" si="14"/>
         <v>43616</v>
@@ -8307,7 +8324,7 @@
         <v>13791.942442359177</v>
       </c>
     </row>
-    <row r="142" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <f t="shared" si="14"/>
         <v>43646</v>
@@ -8347,7 +8364,7 @@
         <v>13902.935490891432</v>
       </c>
     </row>
-    <row r="143" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <f t="shared" si="14"/>
         <v>43677</v>
@@ -8387,7 +8404,7 @@
         <v>14121.080998041331</v>
       </c>
     </row>
-    <row r="144" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <f t="shared" si="14"/>
         <v>43708</v>
@@ -8427,7 +8444,7 @@
         <v>14640.968852815828</v>
       </c>
     </row>
-    <row r="145" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <f t="shared" si="14"/>
         <v>43738</v>
@@ -8467,7 +8484,7 @@
         <v>13986.91639035759</v>
       </c>
     </row>
-    <row r="146" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <f t="shared" si="14"/>
         <v>43769</v>
@@ -8507,7 +8524,7 @@
         <v>13566.88387336298</v>
       </c>
     </row>
-    <row r="147" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <f t="shared" si="14"/>
         <v>43799</v>
@@ -8547,7 +8564,7 @@
         <v>13490.584153726042</v>
       </c>
     </row>
-    <row r="148" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <f t="shared" si="14"/>
         <v>43830</v>
@@ -8587,7 +8604,7 @@
         <v>13403.786821655836</v>
       </c>
     </row>
-    <row r="149" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <f t="shared" si="14"/>
         <v>43861</v>
@@ -8627,7 +8644,7 @@
         <v>13046.227900605563</v>
       </c>
     </row>
-    <row r="150" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <f t="shared" si="14"/>
         <v>43890</v>
@@ -8667,7 +8684,7 @@
         <v>12788.652336998992</v>
       </c>
     </row>
-    <row r="151" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <f t="shared" si="14"/>
         <v>43921</v>
@@ -8707,7 +8724,7 @@
         <v>13205.740401725734</v>
       </c>
     </row>
-    <row r="152" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <f t="shared" si="14"/>
         <v>43951</v>
@@ -8747,7 +8764,7 @@
         <v>13065.302830514796</v>
       </c>
     </row>
-    <row r="153" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <f t="shared" si="14"/>
         <v>43982</v>
@@ -8787,7 +8804,7 @@
         <v>12980.553813065715</v>
       </c>
     </row>
-    <row r="154" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <f t="shared" si="14"/>
         <v>44012</v>
@@ -8827,7 +8844,7 @@
         <v>12664.217223765598</v>
       </c>
     </row>
-    <row r="155" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <f t="shared" si="14"/>
         <v>44043</v>
@@ -8867,7 +8884,7 @@
         <v>12893.500441667868</v>
       </c>
     </row>
-    <row r="156" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <f t="shared" si="14"/>
         <v>44074</v>
@@ -8907,7 +8924,7 @@
         <v>13150.691946282977</v>
       </c>
     </row>
-    <row r="157" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <f t="shared" si="14"/>
         <v>44104</v>
@@ -8947,7 +8964,7 @@
         <v>12805.422912959457</v>
       </c>
     </row>
-    <row r="158" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <f t="shared" si="14"/>
         <v>44135</v>
@@ -8987,7 +9004,7 @@
         <v>12833.075160344655</v>
       </c>
     </row>
-    <row r="159" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <f t="shared" si="14"/>
         <v>44165</v>
@@ -9027,7 +9044,7 @@
         <v>13096.155569495502</v>
       </c>
     </row>
-    <row r="160" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <f t="shared" si="14"/>
         <v>44196</v>
@@ -9067,59 +9084,179 @@
         <v>13646.000025603962</v>
       </c>
     </row>
-    <row r="161" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D161" s="14"/>
-    </row>
-    <row r="162" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="177" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="178" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="179" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="180" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="181" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="182" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="183" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="184" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="185" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="186" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="187" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="188" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="189" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="190" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="191" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="192" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="193" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="194" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="195" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="196" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="197" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="198" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="199" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="200" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="201" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="202" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="203" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="204" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="205" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="206" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="207" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="208" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="209" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="210" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="211" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="8">
+        <f t="shared" si="14"/>
+        <v>44227</v>
+      </c>
+      <c r="B161" s="126">
+        <v>15881</v>
+      </c>
+      <c r="C161" s="90">
+        <f t="shared" si="15"/>
+        <v>7.4219741182441901E-3</v>
+      </c>
+      <c r="D161" s="90">
+        <f>(B161-(MAX($B$2:B161)))/(MAX($B$2:B161))</f>
+        <v>-5.5729492798998123E-3</v>
+      </c>
+      <c r="E161" s="9">
+        <f t="shared" si="16"/>
+        <v>31691.649440724177</v>
+      </c>
+      <c r="F161" s="112">
+        <v>-1.009620651214338E-2</v>
+      </c>
+      <c r="G161" s="90">
+        <f>(E161-(MAX($E$2:E161)))/(MAX($E$2:E161))</f>
+        <v>-1.0096206512143406E-2</v>
+      </c>
+      <c r="H161" s="4"/>
+      <c r="I161" s="125">
+        <v>1063.27</v>
+      </c>
+      <c r="J161" s="11">
+        <f t="shared" si="17"/>
+        <v>-2.4954734363420439E-3</v>
+      </c>
+      <c r="K161" s="16">
+        <f t="shared" si="18"/>
+        <v>13611.946795027745</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="8">
+        <f t="shared" si="14"/>
+        <v>44255</v>
+      </c>
+      <c r="B162" s="126">
+        <v>16426</v>
+      </c>
+      <c r="C162" s="90">
+        <f t="shared" si="15"/>
+        <v>3.4317738177696677E-2</v>
+      </c>
+      <c r="D162" s="90">
+        <f>(B162-(MAX($B$2:B162)))/(MAX($B$2:B162))</f>
+        <v>0</v>
+      </c>
+      <c r="E162" s="9">
+        <f t="shared" si="16"/>
+        <v>32565.53078595682</v>
+      </c>
+      <c r="F162" s="112">
+        <v>2.7574498666190994E-2</v>
+      </c>
+      <c r="G162" s="90">
+        <f>(E162-(MAX($E$2:E162)))/(MAX($E$2:E162))</f>
+        <v>0</v>
+      </c>
+      <c r="H162" s="4"/>
+      <c r="I162" s="125">
+        <v>1136.74</v>
+      </c>
+      <c r="J162" s="11">
+        <f t="shared" si="17"/>
+        <v>6.9098159451503438E-2</v>
+      </c>
+      <c r="K162" s="16">
+        <f t="shared" si="18"/>
+        <v>14552.507265115953</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="8">
+        <f t="shared" si="14"/>
+        <v>44286</v>
+      </c>
+      <c r="B163" s="126">
+        <v>16672</v>
+      </c>
+      <c r="C163" s="90">
+        <f t="shared" si="15"/>
+        <v>1.4976257153293648E-2</v>
+      </c>
+      <c r="D163" s="90">
+        <f>(B163-(MAX($B$2:B163)))/(MAX($B$2:B163))</f>
+        <v>0</v>
+      </c>
+      <c r="E163" s="9">
+        <f t="shared" si="16"/>
+        <v>33991.756303457136</v>
+      </c>
+      <c r="F163" s="112">
+        <v>4.3795555701961586E-2</v>
+      </c>
+      <c r="G163" s="90">
+        <f>(E163-(MAX($E$2:E163)))/(MAX($E$2:E163))</f>
+        <v>0</v>
+      </c>
+      <c r="H163" s="4"/>
+      <c r="I163" s="125">
+        <v>1149.07</v>
+      </c>
+      <c r="J163" s="11">
+        <f t="shared" si="17"/>
+        <v>1.0846807537343572E-2</v>
+      </c>
+      <c r="K163" s="16">
+        <f t="shared" si="18"/>
+        <v>14710.35551060646</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="14"/>
+    </row>
+    <row r="165" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="167" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="168" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="169" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="177" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="178" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="179" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="180" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="181" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="182" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="183" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="184" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="185" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="186" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="187" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="188" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="189" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="190" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="191" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="192" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="193" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="194" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="195" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="196" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="197" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="198" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="199" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="200" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="201" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="202" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="203" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="204" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="205" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="206" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="207" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="208" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="209" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="210" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="211" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="212" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="213" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="214" outlineLevel="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V62:W213">
     <sortCondition ref="W68:W213"/>
@@ -9128,7 +9265,7 @@
     <mergeCell ref="M19:P19"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9137,20 +9274,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0679AC0D-B669-455C-BF0D-AC489C210283}">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="96"/>
-    <col min="3" max="3" width="14.85546875" style="96" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="96"/>
+    <col min="1" max="1" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="96"/>
+    <col min="3" max="3" width="14.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9170,7 +9307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>39752</v>
       </c>
@@ -9190,7 +9327,7 @@
         <v>-0.16795061887570917</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>43921</v>
       </c>
@@ -9210,14 +9347,14 @@
         <v>-0.12351353104680352</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>39872</v>
       </c>
-      <c r="B4" s="96">
+      <c r="B4" s="127">
         <v>8.0938891137192215E-3</v>
       </c>
-      <c r="C4" s="96">
+      <c r="C4" s="127">
         <v>-0.10647796709532442</v>
       </c>
       <c r="F4" s="8">
@@ -9230,7 +9367,7 @@
         <v>-0.10647796709532442</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>43465</v>
       </c>
@@ -9250,14 +9387,14 @@
         <v>-9.028985692409619E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>39721</v>
       </c>
-      <c r="B6" s="127">
+      <c r="B6" s="96">
         <v>-3.1106690977402041E-2</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C6" s="96">
         <v>-8.9105616262056264E-2</v>
       </c>
       <c r="F6" s="8">
@@ -9270,14 +9407,14 @@
         <v>-8.9105616262056264E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>39629</v>
       </c>
-      <c r="B7" s="127">
+      <c r="B7" s="96">
         <v>6.400134386023848E-2</v>
       </c>
-      <c r="C7" s="127">
+      <c r="C7" s="96">
         <v>-8.4304710389903059E-2</v>
       </c>
       <c r="F7" s="8">
@@ -9290,7 +9427,7 @@
         <v>-8.4304710389903059E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>39844</v>
       </c>
@@ -9310,14 +9447,14 @@
         <v>-8.4288840864981007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>43890</v>
       </c>
-      <c r="B9" s="127">
+      <c r="B9" s="96">
         <v>-3.6938110749185626E-2</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="96">
         <v>-8.2318729964890869E-2</v>
       </c>
       <c r="F9" s="8">
@@ -9330,7 +9467,7 @@
         <v>-8.2318729964890869E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>40329</v>
       </c>
@@ -9350,7 +9487,7 @@
         <v>-7.985053760707661E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>39782</v>
       </c>
@@ -9370,7 +9507,7 @@
         <v>-7.1751861106268633E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>40816</v>
       </c>
@@ -9390,7 +9527,7 @@
         <v>-7.0296324117143039E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>43404</v>
       </c>
@@ -9410,7 +9547,7 @@
         <v>-6.8350042162466096E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>43616</v>
       </c>
@@ -9430,7 +9567,7 @@
         <v>-6.3548027506824978E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>42247</v>
       </c>
@@ -9450,7 +9587,7 @@
         <v>-6.0334206068073382E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>41060</v>
       </c>
@@ -9470,7 +9607,7 @@
         <v>-6.0101348833743184E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>39478</v>
       </c>
@@ -9490,14 +9627,14 @@
         <v>-5.998100796538075E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>40786</v>
       </c>
-      <c r="B18" s="127">
+      <c r="B18" s="96">
         <v>9.3967869051228003E-3</v>
       </c>
-      <c r="C18" s="127">
+      <c r="C18" s="96">
         <v>-5.432406833995107E-2</v>
       </c>
       <c r="F18" s="8">
@@ -9510,14 +9647,14 @@
         <v>-5.432406833995107E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>40359</v>
       </c>
-      <c r="B19" s="127">
+      <c r="B19" s="96">
         <v>9.3988103194759809E-3</v>
       </c>
-      <c r="C19" s="127">
+      <c r="C19" s="96">
         <v>-5.234864473640588E-2</v>
       </c>
       <c r="F19" s="8">
@@ -9530,14 +9667,14 @@
         <v>-5.234864473640588E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>42400</v>
       </c>
-      <c r="B20" s="127">
+      <c r="B20" s="96">
         <v>5.8389261744966392E-2</v>
       </c>
-      <c r="C20" s="127">
+      <c r="C20" s="96">
         <v>-4.9623194473518928E-2</v>
       </c>
       <c r="F20" s="8">
@@ -9550,7 +9687,7 @@
         <v>-4.9623194473518928E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>40421</v>
       </c>
@@ -9570,14 +9707,14 @@
         <v>-4.5140023972976007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>39416</v>
       </c>
-      <c r="B22" s="127">
+      <c r="B22" s="96">
         <v>-1.5499999999999958E-2</v>
       </c>
-      <c r="C22" s="127">
+      <c r="C22" s="96">
         <v>-4.1808497031361469E-2</v>
       </c>
       <c r="F22" s="8">
@@ -9590,7 +9727,7 @@
         <v>-4.1808497031361469E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>44104</v>
       </c>
@@ -9610,7 +9747,7 @@
         <v>-3.7997194147475488E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>43159</v>
       </c>
@@ -9630,7 +9767,7 @@
         <v>-3.6855790289246793E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>40209</v>
       </c>
@@ -9650,7 +9787,7 @@
         <v>-3.5972789115646164E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>41670</v>
       </c>
@@ -9670,14 +9807,14 @@
         <v>-3.4576048305128282E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>39507</v>
       </c>
-      <c r="B27" s="96">
+      <c r="B27" s="127">
         <v>0.14060231869471806</v>
       </c>
-      <c r="C27" s="96">
+      <c r="C27" s="127">
         <v>-3.2487660869966462E-2</v>
       </c>
       <c r="F27" s="8">
@@ -9690,7 +9827,7 @@
         <v>-3.2487660869966462E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>42035</v>
       </c>
@@ -9710,7 +9847,7 @@
         <v>-3.0020374379218118E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>41517</v>
       </c>
@@ -9721,7 +9858,7 @@
         <v>-2.8961318147223247E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>44135</v>
       </c>
@@ -9732,7 +9869,7 @@
         <v>-2.6592646444557833E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>43190</v>
       </c>
@@ -9743,18 +9880,18 @@
         <v>-2.5414037817746205E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>42277</v>
       </c>
-      <c r="B32" s="127">
+      <c r="B32" s="96">
         <v>1.3262599469495928E-2</v>
       </c>
-      <c r="C32" s="127">
+      <c r="C32" s="96">
         <v>-2.4743563477429453E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>40755</v>
       </c>
@@ -9765,7 +9902,7 @@
         <v>-2.0333145972181277E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>42185</v>
       </c>
@@ -9776,7 +9913,7 @@
         <v>-1.9359166114135018E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>40117</v>
       </c>
@@ -9787,7 +9924,7 @@
         <v>-1.8576226584951949E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>41213</v>
       </c>
@@ -9798,7 +9935,7 @@
         <v>-1.8465112393741934E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>42674</v>
       </c>
@@ -9809,29 +9946,29 @@
         <v>-1.8240452699062937E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>40724</v>
       </c>
-      <c r="B38" s="127">
+      <c r="B38" s="96">
         <v>-1.039813550673685E-2</v>
       </c>
-      <c r="C38" s="127">
+      <c r="C38" s="96">
         <v>-1.6669152417465805E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>43708</v>
       </c>
-      <c r="B39" s="96">
+      <c r="B39" s="127">
         <v>-3.3689926879142407E-3</v>
       </c>
-      <c r="C39" s="96">
+      <c r="C39" s="127">
         <v>-1.5841366088397368E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>42094</v>
       </c>
@@ -9842,7 +9979,7 @@
         <v>-1.581566410271007E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>42369</v>
       </c>
@@ -9853,18 +9990,18 @@
         <v>-1.5771960729775159E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>41912</v>
       </c>
-      <c r="B42" s="96">
+      <c r="B42" s="127">
         <v>-1.7504127044763118E-2</v>
       </c>
-      <c r="C42" s="96">
+      <c r="C42" s="127">
         <v>-1.4022847167708741E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41851</v>
       </c>
@@ -9875,7 +10012,7 @@
         <v>-1.3791530834586063E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>41455</v>
       </c>
@@ -9886,7 +10023,7 @@
         <v>-1.3428114595806839E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>40694</v>
       </c>
@@ -9897,1258 +10034,1296 @@
         <v>-1.1319478176393227E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
+        <v>44227</v>
+      </c>
+      <c r="B46" s="96">
+        <v>7.4219741182441901E-3</v>
+      </c>
+      <c r="C46" s="96">
+        <v>-1.009620651214338E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
         <v>39660</v>
       </c>
-      <c r="B46" s="96">
+      <c r="B47" s="96">
         <v>-5.7800009971249566E-2</v>
       </c>
-      <c r="C46" s="96">
+      <c r="C47" s="96">
         <v>-8.4077047655145565E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
         <v>39447</v>
       </c>
-      <c r="B47" s="96">
+      <c r="B48" s="96">
         <v>4.1899441340782051E-2</v>
       </c>
-      <c r="C47" s="96">
+      <c r="C48" s="96">
         <v>-6.9369687470396402E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
         <v>41029</v>
       </c>
-      <c r="B48" s="96">
+      <c r="B49" s="96">
         <v>8.0416206313027594E-4</v>
       </c>
-      <c r="C48" s="96">
+      <c r="C49" s="96">
         <v>-6.2739902989710217E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
         <v>39538</v>
       </c>
-      <c r="B49" s="96">
+      <c r="B50" s="127">
         <v>-5.1398657763674693E-2</v>
       </c>
-      <c r="C49" s="96">
+      <c r="C50" s="127">
         <v>-4.3147220222456983E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
         <v>42004</v>
       </c>
-      <c r="B50" s="96">
+      <c r="B51" s="96">
         <v>2.620206399192937E-2</v>
       </c>
-      <c r="C50" s="96">
+      <c r="C51" s="96">
         <v>-2.5192116349471716E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
         <v>40877</v>
       </c>
-      <c r="B51" s="96">
+      <c r="B52" s="96">
         <v>-6.2016594009282056E-3</v>
       </c>
-      <c r="C51" s="96">
+      <c r="C52" s="96">
         <v>-2.2084125109136377E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
         <v>42429</v>
       </c>
-      <c r="B52" s="96">
+      <c r="B53" s="96">
         <v>1.2682308180088864E-2</v>
       </c>
-      <c r="C52" s="96">
+      <c r="C53" s="96">
         <v>-1.3491338010330756E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
         <v>43861</v>
       </c>
-      <c r="B53" s="96">
+      <c r="B54" s="96">
         <v>2.0951114067176535E-2</v>
       </c>
-      <c r="C53" s="96">
+      <c r="C54" s="96">
         <v>-3.9215267403869269E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
         <v>40512</v>
       </c>
-      <c r="B54" s="96">
+      <c r="B55" s="96">
         <v>-1.1001690893125415E-2</v>
       </c>
-      <c r="C54" s="96">
+      <c r="C55" s="96">
         <v>1.2616131490372773E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
         <v>42643</v>
       </c>
-      <c r="B55" s="96">
+      <c r="B56" s="127">
         <v>-7.1243523316062429E-3</v>
       </c>
-      <c r="C55" s="96">
+      <c r="C56" s="127">
         <v>1.8688004970535133E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
         <v>40633</v>
       </c>
-      <c r="B56" s="96">
+      <c r="B57" s="96">
         <v>-2.0029872731150977E-3</v>
       </c>
-      <c r="C56" s="96">
+      <c r="C57" s="96">
         <v>3.9757878984159056E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
         <v>42825</v>
       </c>
-      <c r="B57" s="96">
+      <c r="B58" s="96">
         <v>6.7568655550813705E-3</v>
       </c>
-      <c r="C57" s="96">
+      <c r="C58" s="96">
         <v>1.1648095161407301E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
         <v>42613</v>
       </c>
-      <c r="B58" s="127">
+      <c r="B59" s="96">
         <v>-1.7186505410566544E-2</v>
       </c>
-      <c r="C58" s="127">
+      <c r="C59" s="96">
         <v>1.4047845308431395E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
         <v>39994</v>
       </c>
-      <c r="B59" s="96">
+      <c r="B60" s="127">
         <v>1.7099510278715702E-2</v>
       </c>
-      <c r="C59" s="96">
+      <c r="C60" s="127">
         <v>1.9853339304933826E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
         <v>42551</v>
       </c>
-      <c r="B60" s="96">
+      <c r="B61" s="96">
         <v>4.9257759784075539E-2</v>
       </c>
-      <c r="C60" s="96">
+      <c r="C61" s="96">
         <v>2.5922510390481435E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
         <v>42338</v>
       </c>
-      <c r="B61" s="127">
+      <c r="B62" s="96">
         <v>1.1394101876675666E-2</v>
       </c>
-      <c r="C61" s="127">
+      <c r="C62" s="96">
         <v>2.9731384304618746E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
         <v>42978</v>
       </c>
-      <c r="B62" s="96">
+      <c r="B63" s="96">
         <v>-2.7301496498861599E-3</v>
       </c>
-      <c r="C62" s="96">
+      <c r="C63" s="96">
         <v>3.0620622633290573E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
         <v>43220</v>
       </c>
-      <c r="B63" s="96">
+      <c r="B64" s="96">
         <v>-1.676720641571916E-2</v>
       </c>
-      <c r="C63" s="96">
+      <c r="C64" s="96">
         <v>3.8370908472336041E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
         <v>42490</v>
       </c>
-      <c r="B64" s="96">
+      <c r="B65" s="96">
         <v>-2.4119947848761369E-2</v>
       </c>
-      <c r="C64" s="96">
+      <c r="C65" s="96">
         <v>3.8780205054853578E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
         <v>43373</v>
       </c>
-      <c r="B65" s="96">
+      <c r="B66" s="96">
         <v>-6.7975320975832698E-4</v>
       </c>
-      <c r="C65" s="96">
+      <c r="C66" s="96">
         <v>5.6920499755706011E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
         <v>41243</v>
       </c>
-      <c r="B66" s="96">
+      <c r="B67" s="96">
         <v>-2.9982835912774064E-3</v>
       </c>
-      <c r="C66" s="96">
+      <c r="C67" s="96">
         <v>5.7993685942507867E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
         <v>43281</v>
       </c>
-      <c r="B67" s="96">
+      <c r="B68" s="96">
         <v>-2.0454963882300392E-3</v>
       </c>
-      <c r="C67" s="96">
+      <c r="C68" s="96">
         <v>6.154453658261394E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
         <v>42916</v>
       </c>
-      <c r="B68" s="96">
+      <c r="B69" s="96">
         <v>-2.8251915961901908E-2</v>
       </c>
-      <c r="C68" s="96">
+      <c r="C69" s="96">
         <v>6.2417461403123653E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
         <v>41759</v>
       </c>
-      <c r="B69" s="127">
+      <c r="B70" s="96">
         <v>1.3999767759166337E-2</v>
       </c>
-      <c r="C69" s="127">
+      <c r="C70" s="96">
         <v>7.3914756584929631E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
         <v>41729</v>
       </c>
-      <c r="B70" s="96">
+      <c r="B71" s="96">
         <v>-4.6017699115045163E-3</v>
       </c>
-      <c r="C70" s="96">
+      <c r="C71" s="96">
         <v>8.4035872831886849E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
         <v>41274</v>
       </c>
-      <c r="B71" s="96">
+      <c r="B72" s="96">
         <v>-8.4988922384048315E-3</v>
       </c>
-      <c r="C71" s="96">
+      <c r="C72" s="96">
         <v>9.1142790371581128E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
         <v>42124</v>
       </c>
-      <c r="B72" s="96">
+      <c r="B73" s="96">
         <v>-1.5595549531944419E-2</v>
       </c>
-      <c r="C72" s="96">
+      <c r="C73" s="96">
         <v>9.5945885574479917E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
         <v>40908</v>
       </c>
-      <c r="B73" s="127">
+      <c r="B74" s="96">
         <v>6.0139523694968666E-4</v>
       </c>
-      <c r="C73" s="127">
+      <c r="C74" s="96">
         <v>1.0228910475976516E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
         <v>42855</v>
       </c>
-      <c r="B74" s="96">
+      <c r="B75" s="96">
         <v>1.7449543668842438E-2</v>
       </c>
-      <c r="C74" s="96">
+      <c r="C75" s="96">
         <v>1.0270569233243876E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
         <v>39813</v>
       </c>
-      <c r="B75" s="127">
+      <c r="B76" s="96">
         <v>2.0498023436397173E-2</v>
       </c>
-      <c r="C75" s="127">
+      <c r="C76" s="96">
         <v>1.0642145679149673E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
         <v>43100</v>
       </c>
-      <c r="B76" s="96">
+      <c r="B77" s="96">
         <v>1.5068603086900945E-2</v>
       </c>
-      <c r="C76" s="96">
+      <c r="C77" s="96">
         <v>1.1118352652732089E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
         <v>42155</v>
       </c>
-      <c r="B77" s="96">
+      <c r="B78" s="127">
         <v>1.5394368632372979E-2</v>
       </c>
-      <c r="C77" s="96">
+      <c r="C78" s="127">
         <v>1.2858622825877575E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
         <v>39599</v>
       </c>
-      <c r="B78" s="96">
+      <c r="B79" s="127">
         <v>1.9496322468993466E-2</v>
       </c>
-      <c r="C78" s="96">
+      <c r="C79" s="127">
         <v>1.2953568966225681E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
         <v>41333</v>
       </c>
-      <c r="B79" s="96">
+      <c r="B80" s="96">
         <v>-1.0106173236166027E-2</v>
       </c>
-      <c r="C79" s="96">
+      <c r="C80" s="96">
         <v>1.3575485164151191E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
         <v>41121</v>
       </c>
-      <c r="B80" s="96">
+      <c r="B81" s="96">
         <v>1.4202929849188362E-2</v>
       </c>
-      <c r="C80" s="96">
+      <c r="C81" s="96">
         <v>1.3888712618295163E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
         <v>42886</v>
       </c>
-      <c r="B81" s="96">
+      <c r="B82" s="96">
         <v>3.957454417552686E-3</v>
       </c>
-      <c r="C81" s="96">
+      <c r="C82" s="96">
         <v>1.40725262932897E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
         <v>43677</v>
       </c>
-      <c r="B82" s="96">
+      <c r="B83" s="96">
         <v>-4.6951108245946171E-3</v>
       </c>
-      <c r="C82" s="96">
+      <c r="C83" s="96">
         <v>1.4373122328946719E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
         <v>39691</v>
       </c>
-      <c r="B83" s="96">
+      <c r="B84" s="96">
         <v>-4.2296498809418881E-2</v>
       </c>
-      <c r="C83" s="96">
+      <c r="C84" s="96">
         <v>1.4465917721990129E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
         <v>40298</v>
       </c>
-      <c r="B84" s="127">
+      <c r="B85" s="127">
         <v>1.8200235263364117E-2</v>
       </c>
-      <c r="C84" s="127">
+      <c r="C85" s="127">
         <v>1.5786375278856513E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
         <v>42521</v>
       </c>
-      <c r="B85" s="127">
+      <c r="B86" s="96">
         <v>-1.0020040080160331E-2</v>
       </c>
-      <c r="C85" s="127">
+      <c r="C86" s="96">
         <v>1.7957218508640294E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
         <v>43738</v>
       </c>
-      <c r="B86" s="96">
+      <c r="B87" s="96">
         <v>-1.2170714955652251E-2</v>
       </c>
-      <c r="C86" s="96">
+      <c r="C87" s="96">
         <v>1.8710697955149458E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
         <v>42766</v>
       </c>
-      <c r="B87" s="127">
+      <c r="B88" s="96">
         <v>-7.5446358034445549E-3</v>
       </c>
-      <c r="C87" s="127">
+      <c r="C88" s="96">
         <v>1.8966218395479073E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
         <v>41394</v>
       </c>
-      <c r="B88" s="96">
+      <c r="B89" s="96">
         <v>8.1963006678740236E-3</v>
       </c>
-      <c r="C88" s="96">
+      <c r="C89" s="96">
         <v>1.9266800238262771E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
         <v>40178</v>
       </c>
-      <c r="B89" s="96">
+      <c r="B90" s="96">
         <v>-7.2999286411470354E-3</v>
       </c>
-      <c r="C89" s="96">
+      <c r="C90" s="96">
         <v>1.9315685534870175E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="8">
         <v>43555</v>
       </c>
-      <c r="B90" s="96">
+      <c r="B91" s="96">
         <v>6.7653362177266807E-4</v>
       </c>
-      <c r="C90" s="96">
+      <c r="C91" s="96">
         <v>1.9431331650016537E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
         <v>42735</v>
       </c>
-      <c r="B91" s="96">
+      <c r="B92" s="96">
         <v>-4.5745405037433962E-4</v>
       </c>
-      <c r="C91" s="96">
+      <c r="C92" s="96">
         <v>1.9765332850302686E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="8">
         <v>44012</v>
       </c>
-      <c r="B92" s="96">
+      <c r="B93" s="96">
         <v>1.4059629786632666E-2</v>
       </c>
-      <c r="C92" s="96">
+      <c r="C93" s="96">
         <v>1.9888211104706066E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="8">
         <v>43434</v>
       </c>
-      <c r="B93" s="127">
+      <c r="B94" s="96">
         <v>3.4510547782993228E-3</v>
       </c>
-      <c r="C93" s="127">
+      <c r="C94" s="96">
         <v>2.0378099223576251E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="8">
         <v>42947</v>
       </c>
-      <c r="B94" s="96">
+      <c r="B95" s="96">
         <v>-9.4664100217727309E-3</v>
       </c>
-      <c r="C94" s="96">
+      <c r="C95" s="96">
         <v>2.0562761309518951E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="8">
         <v>43008</v>
       </c>
-      <c r="B95" s="96">
+      <c r="B96" s="96">
         <v>-2.6693870726795632E-2</v>
       </c>
-      <c r="C95" s="96">
+      <c r="C96" s="96">
         <v>2.0627748382813005E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="8">
         <v>41820</v>
       </c>
-      <c r="B96" s="96">
+      <c r="B97" s="96">
         <v>1.6798571769965021E-2</v>
       </c>
-      <c r="C96" s="96">
+      <c r="C97" s="96">
         <v>2.0656324616626698E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
         <v>42216</v>
       </c>
-      <c r="B97" s="96">
+      <c r="B98" s="96">
         <v>2.0007462590547753E-3</v>
       </c>
-      <c r="C97" s="96">
+      <c r="C98" s="96">
         <v>2.0952081449742588E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
         <v>43769</v>
       </c>
-      <c r="B98" s="96">
+      <c r="B99" s="96">
         <v>1.1656649781934814E-2</v>
       </c>
-      <c r="C98" s="96">
+      <c r="C99" s="96">
         <v>2.1658991543773043E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
         <v>41152</v>
       </c>
-      <c r="B99" s="96">
+      <c r="B100" s="96">
         <v>6.6009880188517833E-3</v>
       </c>
-      <c r="C99" s="96">
+      <c r="C100" s="96">
         <v>2.2523387103504211E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="8">
         <v>43039</v>
       </c>
-      <c r="B100" s="96">
+      <c r="B101" s="96">
         <v>1.8987160570725026E-2</v>
       </c>
-      <c r="C100" s="96">
+      <c r="C101" s="96">
         <v>2.3334840434781512E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
         <v>41425</v>
       </c>
-      <c r="B101" s="96">
+      <c r="B102" s="127">
         <v>-2.3094654634564948E-2</v>
       </c>
-      <c r="C101" s="96">
+      <c r="C102" s="127">
         <v>2.3390073031996694E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
         <v>41790</v>
       </c>
-      <c r="B102" s="96">
+      <c r="B103" s="96">
         <v>1.8301280445471857E-2</v>
       </c>
-      <c r="C102" s="96">
+      <c r="C103" s="96">
         <v>2.3476235568129056E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
         <v>40574</v>
       </c>
-      <c r="B103" s="96">
+      <c r="B104" s="96">
         <v>7.9010062937809877E-3</v>
       </c>
-      <c r="C103" s="96">
+      <c r="C104" s="96">
         <v>2.3700627633862936E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="8">
         <v>43251</v>
       </c>
-      <c r="B104" s="96">
+      <c r="B105" s="96">
         <v>6.8207141091236601E-4</v>
       </c>
-      <c r="C104" s="96">
+      <c r="C105" s="96">
         <v>2.4082233142822096E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="8">
         <v>41943</v>
       </c>
-      <c r="B105" s="96">
+      <c r="B106" s="96">
         <v>-2.9855305912729335E-4</v>
       </c>
-      <c r="C105" s="96">
+      <c r="C106" s="96">
         <v>2.4424803396200012E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="8">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="8">
         <v>41639</v>
       </c>
-      <c r="B106" s="96">
+      <c r="B107" s="96">
         <v>8.9752078275595615E-4</v>
       </c>
-      <c r="C106" s="96">
+      <c r="C107" s="96">
         <v>2.5317590886038577E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="8">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="8">
         <v>41182</v>
       </c>
-      <c r="B107" s="96">
+      <c r="B108" s="127">
         <v>-7.4038556459687932E-3</v>
       </c>
-      <c r="C107" s="96">
+      <c r="C108" s="127">
         <v>2.5842650779400955E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="8">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="8">
         <v>41973</v>
       </c>
-      <c r="B108" s="96">
+      <c r="B109" s="127">
         <v>1.8897801854359964E-2</v>
       </c>
-      <c r="C108" s="96">
+      <c r="C109" s="127">
         <v>2.6894094820909986E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="8">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="8">
+        <v>44255</v>
+      </c>
+      <c r="B110" s="96">
+        <v>3.4317738177696677E-2</v>
+      </c>
+      <c r="C110" s="96">
+        <v>2.7574498666190994E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="8">
         <v>40663</v>
       </c>
-      <c r="B109" s="127">
+      <c r="B111" s="96">
         <v>3.7802085632310689E-2</v>
       </c>
-      <c r="C109" s="127">
+      <c r="C111" s="96">
         <v>2.9614546493766269E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="8">
         <v>43830</v>
       </c>
-      <c r="B110" s="96">
+      <c r="B112" s="96">
         <v>6.6956812855707426E-3</v>
       </c>
-      <c r="C110" s="96">
+      <c r="C112" s="96">
         <v>3.0182848232194415E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="8">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="8">
         <v>41608</v>
       </c>
-      <c r="B111" s="96">
+      <c r="B113" s="127">
         <v>2.2099239798181847E-2</v>
       </c>
-      <c r="C111" s="96">
+      <c r="C113" s="127">
         <v>3.0473950715243836E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="8">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="8">
         <v>43069</v>
       </c>
-      <c r="B112" s="96">
+      <c r="B114" s="96">
         <v>7.5914981799043435E-3</v>
       </c>
-      <c r="C112" s="96">
+      <c r="C114" s="96">
         <v>3.0669548163445581E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="8">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="8">
         <v>40237</v>
       </c>
-      <c r="B113" s="96">
+      <c r="B115" s="96">
         <v>2.1204257979429597E-2</v>
       </c>
-      <c r="C113" s="96">
+      <c r="C115" s="96">
         <v>3.0975499604832368E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="8">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="8">
         <v>41547</v>
       </c>
-      <c r="B114" s="96">
+      <c r="B116" s="127">
         <v>9.3039283252929206E-3</v>
       </c>
-      <c r="C114" s="96">
+      <c r="C116" s="127">
         <v>3.135828612287539E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="8">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="8">
         <v>43524</v>
       </c>
-      <c r="B115" s="96">
+      <c r="B117" s="96">
         <v>4.0764233247236881E-3</v>
       </c>
-      <c r="C115" s="96">
+      <c r="C117" s="96">
         <v>3.2108447274422636E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="8">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="8">
         <v>43343</v>
       </c>
-      <c r="B116" s="96">
+      <c r="B118" s="96">
         <v>3.4103570545622741E-3</v>
       </c>
-      <c r="C116" s="96">
+      <c r="C118" s="96">
         <v>3.2584018623557753E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="8">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="8">
         <v>40999</v>
       </c>
-      <c r="B117" s="96">
+      <c r="B119" s="96">
         <v>-9.9895912650449503E-4</v>
       </c>
-      <c r="C117" s="96">
+      <c r="C119" s="96">
         <v>3.2907960547842841E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="8">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="8">
         <v>40602</v>
       </c>
-      <c r="B118" s="96">
+      <c r="B120" s="96">
         <v>2.5097723776865033E-2</v>
       </c>
-      <c r="C118" s="96">
+      <c r="C120" s="96">
         <v>3.425891702088335E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="8">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="8">
         <v>40056</v>
       </c>
-      <c r="B119" s="96">
+      <c r="B121" s="96">
         <v>2.1403558922318267E-2</v>
       </c>
-      <c r="C119" s="96">
+      <c r="C121" s="96">
         <v>3.6103478859524474E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="8">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="8">
         <v>43799</v>
       </c>
-      <c r="B120" s="96">
+      <c r="B122" s="96">
         <v>3.3590863285186678E-3</v>
       </c>
-      <c r="C120" s="96">
+      <c r="C122" s="96">
         <v>3.6299039052051674E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="8">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="8">
         <v>42582</v>
       </c>
-      <c r="B121" s="96">
+      <c r="B123" s="96">
         <v>1.0289389067524191E-2</v>
       </c>
-      <c r="C121" s="96">
+      <c r="C123" s="96">
         <v>3.6868008497534133E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="8">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="8">
         <v>42704</v>
       </c>
-      <c r="B122" s="96">
+      <c r="B124" s="96">
         <v>-1.3431833445265329E-2</v>
       </c>
-      <c r="C122" s="96">
+      <c r="C124" s="96">
         <v>3.7035114647209877E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="8">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="8">
         <v>43312</v>
       </c>
-      <c r="B123" s="96">
+      <c r="B125" s="127">
         <v>1.366685431743786E-3</v>
       </c>
-      <c r="C123" s="96">
+      <c r="C125" s="127">
         <v>3.7214787238615266E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="8">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="8">
         <v>40086</v>
       </c>
-      <c r="B124" s="96">
+      <c r="B126" s="96">
         <v>2.0202903620780033E-2</v>
       </c>
-      <c r="C124" s="96">
+      <c r="C126" s="96">
         <v>3.7317721428058226E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="8">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="8">
         <v>41364</v>
       </c>
-      <c r="B125" s="96">
+      <c r="B127" s="96">
         <v>6.2038034257385632E-3</v>
       </c>
-      <c r="C125" s="96">
+      <c r="C127" s="96">
         <v>3.7502996344459749E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="8">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="8">
         <v>40482</v>
       </c>
-      <c r="B126" s="96">
+      <c r="B128" s="127">
         <v>4.6000743906419617E-2</v>
       </c>
-      <c r="C126" s="96">
+      <c r="C128" s="127">
         <v>3.8052332434060476E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="8">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="8">
         <v>44196</v>
       </c>
-      <c r="B127" s="96">
+      <c r="B129" s="96">
         <v>1.245985870263322E-2</v>
       </c>
-      <c r="C127" s="96">
+      <c r="C129" s="96">
         <v>3.8448567061827754E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="8">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="8">
         <v>42794</v>
       </c>
-      <c r="B128" s="96">
+      <c r="B130" s="96">
         <v>2.2805970149253785E-2</v>
       </c>
-      <c r="C128" s="96">
+      <c r="C130" s="96">
         <v>3.970815241948622E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="8">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="8">
         <v>41882</v>
       </c>
-      <c r="B129" s="96">
+      <c r="B131" s="127">
         <v>1.7201540436456941E-2</v>
       </c>
-      <c r="C129" s="96">
+      <c r="C131" s="127">
         <v>4.0006394172168891E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="8">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="8">
         <v>43585</v>
       </c>
-      <c r="B130" s="96">
+      <c r="B132" s="96">
         <v>1.4198272279464463E-2</v>
       </c>
-      <c r="C130" s="96">
+      <c r="C132" s="96">
         <v>4.0489296420135323E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="8">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="8">
         <v>41090</v>
       </c>
-      <c r="B131" s="127">
+      <c r="B133" s="127">
         <v>-1.6600594648166545E-2</v>
       </c>
-      <c r="C131" s="127">
+      <c r="C133" s="127">
         <v>4.1202510736702891E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="8">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="8">
         <v>40968</v>
       </c>
-      <c r="B132" s="96">
+      <c r="B134" s="96">
         <v>8.9497346543510048E-4</v>
       </c>
-      <c r="C132" s="96">
+      <c r="C134" s="96">
         <v>4.3241757511005563E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="8">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="8">
+        <v>44286</v>
+      </c>
+      <c r="B135" s="96">
+        <v>1.4976257153293648E-2</v>
+      </c>
+      <c r="C135" s="96">
+        <v>4.3795555701961586E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="8">
         <v>40939</v>
       </c>
-      <c r="B133" s="96">
+      <c r="B136" s="96">
         <v>1.1299435028248705E-2</v>
       </c>
-      <c r="C133" s="96">
+      <c r="C136" s="96">
         <v>4.4813658554661018E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="8">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="8">
         <v>41698</v>
       </c>
-      <c r="B134" s="96">
+      <c r="B137" s="96">
         <v>2.0396880390393557E-2</v>
       </c>
-      <c r="C134" s="96">
+      <c r="C137" s="96">
         <v>4.5745794217341818E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="8">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="8">
         <v>41578</v>
       </c>
-      <c r="B135" s="96">
+      <c r="B138" s="96">
         <v>8.9981411934296762E-3</v>
       </c>
-      <c r="C135" s="96">
+      <c r="C138" s="96">
         <v>4.5967241965482186E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="8">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="8">
         <v>43982</v>
       </c>
-      <c r="B136" s="96">
+      <c r="B139" s="96">
         <v>9.7738460440892627E-3</v>
       </c>
-      <c r="C136" s="96">
+      <c r="C139" s="96">
         <v>4.7627458500709929E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="8">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="8">
         <v>39568</v>
       </c>
-      <c r="B137" s="127">
+      <c r="B140" s="96">
         <v>-7.7009078305979584E-3</v>
       </c>
-      <c r="C137" s="127">
+      <c r="C140" s="96">
         <v>4.8701889466678194E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="8">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="8">
         <v>41486</v>
       </c>
-      <c r="B138" s="96">
+      <c r="B141" s="96">
         <v>4.0650094722383123E-4</v>
       </c>
-      <c r="C138" s="96">
+      <c r="C141" s="96">
         <v>5.0886461380873271E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="8">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="8">
         <v>41305</v>
       </c>
-      <c r="B139" s="96">
+      <c r="B142" s="96">
         <v>3.3041503351771695E-3</v>
       </c>
-      <c r="C139" s="96">
+      <c r="C142" s="96">
         <v>5.1796010285732441E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="8">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="8">
         <v>39964</v>
       </c>
-      <c r="B140" s="96">
+      <c r="B143" s="96">
         <v>-3.0701061682898989E-2</v>
       </c>
-      <c r="C140" s="96">
+      <c r="C143" s="96">
         <v>5.5931617174761694E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="8">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="8">
         <v>44043</v>
       </c>
-      <c r="B141" s="96">
+      <c r="B144" s="96">
         <v>2.84957848533407E-2</v>
       </c>
-      <c r="C141" s="96">
+      <c r="C144" s="96">
         <v>5.6385171143966906E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="8">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="8">
         <v>43131</v>
       </c>
-      <c r="B142" s="96">
+      <c r="B145" s="96">
         <v>6.0053681813978965E-2</v>
       </c>
-      <c r="C142" s="96">
+      <c r="C145" s="96">
         <v>5.7253738902232287E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="8">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="8">
         <v>42063</v>
       </c>
-      <c r="B143" s="96">
+      <c r="B146" s="96">
         <v>-9.8979315214444696E-3</v>
       </c>
-      <c r="C143" s="96">
+      <c r="C146" s="96">
         <v>5.747371645497612E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="8">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="8">
         <v>40147</v>
       </c>
-      <c r="B144" s="127">
+      <c r="B147" s="96">
         <v>4.7900228628401376E-2</v>
       </c>
-      <c r="C144" s="127">
+      <c r="C147" s="96">
         <v>5.9982242292743404E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="8">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="8">
         <v>40268</v>
       </c>
-      <c r="B145" s="96">
+      <c r="B148" s="96">
         <v>2.6592309950102866E-2</v>
       </c>
-      <c r="C145" s="96">
+      <c r="C148" s="96">
         <v>6.034704616513431E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="8">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="8">
         <v>40543</v>
       </c>
-      <c r="B146" s="96">
+      <c r="B149" s="96">
         <v>3.1801938641483396E-2</v>
       </c>
-      <c r="C146" s="96">
+      <c r="C149" s="96">
         <v>6.6831833044039834E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="8">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="8">
         <v>42460</v>
       </c>
-      <c r="B147" s="96">
+      <c r="B150" s="96">
         <v>-3.9448966812773989E-2</v>
       </c>
-      <c r="C147" s="96">
+      <c r="C150" s="96">
         <v>6.7837311762143582E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="8">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="8">
         <v>40390</v>
       </c>
-      <c r="B148" s="96">
+      <c r="B151" s="96">
         <v>2.6502015378121246E-2</v>
       </c>
-      <c r="C148" s="96">
+      <c r="C151" s="96">
         <v>7.0060574966622546E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="8">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="8">
         <v>43646</v>
       </c>
-      <c r="B149" s="96">
+      <c r="B152" s="96">
         <v>2.0166295193988493E-3</v>
       </c>
-      <c r="C149" s="96">
+      <c r="C152" s="96">
         <v>7.0476711594105623E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="8">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="8">
         <v>44074</v>
       </c>
-      <c r="B150" s="96">
+      <c r="B153" s="96">
         <v>1.4225714672808643E-3</v>
       </c>
-      <c r="C150" s="96">
+      <c r="C153" s="96">
         <v>7.1879829682211405E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="8">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="8">
         <v>40025</v>
       </c>
-      <c r="B151" s="96">
+      <c r="B154" s="96">
         <v>-3.7023851904592897E-3</v>
       </c>
-      <c r="C151" s="96">
+      <c r="C154" s="96">
         <v>7.563344763632962E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="8">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="8">
         <v>43496</v>
       </c>
-      <c r="B152" s="96">
+      <c r="B155" s="127">
         <v>1.0294952501872512E-2</v>
       </c>
-      <c r="C152" s="96">
+      <c r="C155" s="127">
         <v>8.0134905762586639E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="8">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="8">
         <v>42308</v>
       </c>
-      <c r="B153" s="96">
+      <c r="B156" s="96">
         <v>-2.3560209424083767E-2</v>
       </c>
-      <c r="C153" s="96">
+      <c r="C156" s="96">
         <v>8.4354526535150853E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="8">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="8">
         <v>39903</v>
       </c>
-      <c r="B154" s="96">
+      <c r="B157" s="127">
         <v>1.5032841634137206E-3</v>
       </c>
-      <c r="C154" s="96">
+      <c r="C157" s="127">
         <v>8.7597994683893621E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="8">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="8">
         <v>40451</v>
       </c>
-      <c r="B155" s="96">
+      <c r="B158" s="96">
         <v>4.6503499281078664E-2</v>
       </c>
-      <c r="C155" s="96">
+      <c r="C158" s="96">
         <v>8.924139111580276E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="8">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="8">
         <v>39933</v>
       </c>
-      <c r="B156" s="96">
+      <c r="B159" s="127">
         <v>-2.7999283600419589E-2</v>
       </c>
-      <c r="C156" s="96">
+      <c r="C159" s="127">
         <v>9.570913703228201E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="8">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="8">
         <v>40847</v>
       </c>
-      <c r="B157" s="96">
+      <c r="B160" s="96">
         <v>-1.2196477190642874E-2</v>
       </c>
-      <c r="C157" s="96">
+      <c r="C160" s="96">
         <v>0.10929205144008414</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="8">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="8">
         <v>44165</v>
       </c>
-      <c r="B158" s="96">
+      <c r="B161" s="96">
         <v>6.8414190626501004E-2</v>
       </c>
-      <c r="C158" s="96">
+      <c r="C161" s="96">
         <v>0.10946362497104611</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="8">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="8">
         <v>43951</v>
       </c>
-      <c r="B159" s="96">
+      <c r="B162" s="96">
         <v>2.2165022165021586E-3</v>
       </c>
-      <c r="C159" s="96">
+      <c r="C162" s="96">
         <v>0.12819403324982925</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="8">
+        <v>39386</v>
       </c>
     </row>
   </sheetData>
@@ -11164,15 +11339,15 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11188,7 +11363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>'ACX Fact Sheet Backup'!M21</f>
         <v>2008</v>
@@ -11205,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>'ACX Fact Sheet Backup'!M22</f>
         <v>2009</v>
@@ -11222,7 +11397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>'ACX Fact Sheet Backup'!M23</f>
         <v>2010</v>
@@ -11239,7 +11414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>'ACX Fact Sheet Backup'!M24</f>
         <v>2011</v>
@@ -11256,7 +11431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>'ACX Fact Sheet Backup'!M25</f>
         <v>2012</v>
@@ -11273,7 +11448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>'ACX Fact Sheet Backup'!M26</f>
         <v>2013</v>
@@ -11290,7 +11465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>'ACX Fact Sheet Backup'!M27</f>
         <v>2014</v>
@@ -11307,7 +11482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>'ACX Fact Sheet Backup'!M28</f>
         <v>2015</v>
@@ -11324,7 +11499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>'ACX Fact Sheet Backup'!M29</f>
         <v>2016</v>
@@ -11341,7 +11516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>'ACX Fact Sheet Backup'!M30</f>
         <v>2017</v>
@@ -11358,7 +11533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>'ACX Fact Sheet Backup'!M31</f>
         <v>2018</v>
@@ -11375,7 +11550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>'ACX Fact Sheet Backup'!M32</f>
         <v>2019</v>
@@ -11392,7 +11567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>'ACX Fact Sheet Backup'!M33</f>
         <v>2020</v>
@@ -11407,6 +11582,23 @@
       </c>
       <c r="D14">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>'ACX Fact Sheet Backup'!M34</f>
+        <v>2021 YTD</v>
+      </c>
+      <c r="B15" s="116">
+        <f>'ACX Fact Sheet Backup'!N34*100</f>
+        <v>5.759959401167225</v>
+      </c>
+      <c r="C15" s="116">
+        <f>'ACX Fact Sheet Backup'!O34*100</f>
+        <v>6.1748728952811582</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -11422,17 +11614,17 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="119" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="119" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="str">
         <f>'SP500 Down Months'!F1</f>
         <v>Date</v>
@@ -11444,7 +11636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="119">
         <f>'SP500 Down Months'!F2</f>
         <v>39752</v>
@@ -11458,7 +11650,7 @@
         <v>-16.795061887570917</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="119">
         <f>'SP500 Down Months'!F3</f>
         <v>43921</v>
@@ -11472,7 +11664,7 @@
         <v>-12.351353104680351</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="119">
         <f>'SP500 Down Months'!F4</f>
         <v>39872</v>
@@ -11486,7 +11678,7 @@
         <v>-10.647796709532443</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="119">
         <f>'SP500 Down Months'!F5</f>
         <v>43465</v>
@@ -11500,7 +11692,7 @@
         <v>-9.0289856924096199</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="119">
         <f>'SP500 Down Months'!F6</f>
         <v>39721</v>
@@ -11514,7 +11706,7 @@
         <v>-8.9105616262056273</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="119">
         <f>'SP500 Down Months'!F7</f>
         <v>39629</v>
@@ -11528,7 +11720,7 @@
         <v>-8.430471038990305</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="119">
         <f>'SP500 Down Months'!F8</f>
         <v>39844</v>
@@ -11542,7 +11734,7 @@
         <v>-8.4288840864981012</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="119">
         <f>'SP500 Down Months'!F9</f>
         <v>43890</v>
@@ -11556,7 +11748,7 @@
         <v>-8.2318729964890878</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="119">
         <f>'SP500 Down Months'!F10</f>
         <v>40329</v>
@@ -11570,7 +11762,7 @@
         <v>-7.985053760707661</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="119">
         <f>'SP500 Down Months'!F11</f>
         <v>39782</v>
@@ -11584,7 +11776,7 @@
         <v>-7.1751861106268633</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="119">
         <f>'SP500 Down Months'!F12</f>
         <v>40816</v>
@@ -11598,7 +11790,7 @@
         <v>-7.0296324117143039</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="119">
         <f>'SP500 Down Months'!F13</f>
         <v>43404</v>
@@ -11612,7 +11804,7 @@
         <v>-6.8350042162466096</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="119">
         <f>'SP500 Down Months'!F14</f>
         <v>43616</v>
@@ -11626,7 +11818,7 @@
         <v>-6.3548027506824978</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="119">
         <f>'SP500 Down Months'!F15</f>
         <v>42247</v>
@@ -11640,7 +11832,7 @@
         <v>-6.0334206068073382</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="119">
         <f>'SP500 Down Months'!F16</f>
         <v>41060</v>
@@ -11654,7 +11846,7 @@
         <v>-6.0101348833743184</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="119">
         <f>'SP500 Down Months'!F17</f>
         <v>39478</v>
@@ -11668,7 +11860,7 @@
         <v>-5.9981007965380755</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="119">
         <f>'SP500 Down Months'!F18</f>
         <v>40786</v>
@@ -11682,7 +11874,7 @@
         <v>-5.432406833995107</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="119">
         <f>'SP500 Down Months'!F19</f>
         <v>40359</v>
@@ -11696,7 +11888,7 @@
         <v>-5.234864473640588</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="119">
         <f>'SP500 Down Months'!F20</f>
         <v>42400</v>
@@ -11710,7 +11902,7 @@
         <v>-4.9623194473518932</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="119">
         <f>'SP500 Down Months'!F21</f>
         <v>40421</v>
@@ -11724,7 +11916,7 @@
         <v>-4.5140023972976007</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="119">
         <f>'SP500 Down Months'!F22</f>
         <v>39416</v>
@@ -11738,7 +11930,7 @@
         <v>-4.1808497031361469</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="119">
         <f>'SP500 Down Months'!F23</f>
         <v>44104</v>
@@ -11752,7 +11944,7 @@
         <v>-3.7997194147475488</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="119">
         <f>'SP500 Down Months'!F24</f>
         <v>43159</v>
@@ -11766,7 +11958,7 @@
         <v>-3.6855790289246793</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="119">
         <f>'SP500 Down Months'!F25</f>
         <v>40209</v>
@@ -11780,7 +11972,7 @@
         <v>-3.5972789115646164</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="119">
         <f>'SP500 Down Months'!F26</f>
         <v>41670</v>
@@ -11794,7 +11986,7 @@
         <v>-3.4576048305128282</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="119">
         <f>'SP500 Down Months'!F27</f>
         <v>39507</v>
@@ -11808,7 +12000,7 @@
         <v>-3.2487660869966462</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="119">
         <f>'SP500 Down Months'!F28</f>
         <v>42035</v>
@@ -11822,19 +12014,19 @@
         <v>-3.0020374379218118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="116"/>
       <c r="C30" s="116"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="116"/>
       <c r="C31" s="116"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="116"/>
       <c r="C32" s="116"/>
     </row>
@@ -11848,20 +12040,20 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="119" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="116" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="116" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="119" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="116" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="116" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="str">
         <f>'ACX Fact Sheet Backup'!A1</f>
         <v>Date</v>
@@ -11874,7 +12066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="124">
         <f>'ACX Fact Sheet Backup'!A2</f>
         <v>39386</v>
@@ -11888,7 +12080,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="124">
         <f>'ACX Fact Sheet Backup'!A3</f>
         <v>39416</v>
@@ -11902,7 +12094,7 @@
         <v>9800.4173441040548</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="124">
         <f>'ACX Fact Sheet Backup'!A4</f>
         <v>39447</v>
@@ -11916,7 +12108,7 @@
         <v>9805.9221896483305</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="124">
         <f>'ACX Fact Sheet Backup'!A5</f>
         <v>39478</v>
@@ -11930,7 +12122,7 @@
         <v>10376.377811631866</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="124">
         <f>'ACX Fact Sheet Backup'!A6</f>
         <v>39507</v>
@@ -11944,7 +12136,7 @@
         <v>11088.039122809265</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="124">
         <f>'ACX Fact Sheet Backup'!A7</f>
         <v>39538</v>
@@ -11958,7 +12150,7 @@
         <v>10962.067773610028</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="124">
         <f>'ACX Fact Sheet Backup'!A8</f>
         <v>39568</v>
@@ -11972,7 +12164,7 @@
         <v>10416.319946743823</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="124">
         <f>'ACX Fact Sheet Backup'!A9</f>
         <v>39599</v>
@@ -11986,7 +12178,7 @@
         <v>10437.05913228272</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="124">
         <f>'ACX Fact Sheet Backup'!A10</f>
         <v>39629</v>
@@ -12000,7 +12192,7 @@
         <v>10711.6613111774</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="124">
         <f>'ACX Fact Sheet Backup'!A11</f>
         <v>39660</v>
@@ -12014,7 +12206,7 @@
         <v>10264.616645116694</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="124">
         <f>'ACX Fact Sheet Backup'!A12</f>
         <v>39691</v>
@@ -12028,7 +12220,7 @@
         <v>10333.363204588228</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="124">
         <f>'ACX Fact Sheet Backup'!A13</f>
         <v>39721</v>
@@ -12042,7 +12234,7 @@
         <v>10669.798881108143</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="124">
         <f>'ACX Fact Sheet Backup'!A14</f>
         <v>39752</v>
@@ -12056,7 +12248,7 @@
         <v>11518.825291564788</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="124">
         <f>'ACX Fact Sheet Backup'!A15</f>
         <v>39782</v>
@@ -12070,7 +12262,7 @@
         <v>11926.183861841184</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="124">
         <f>'ACX Fact Sheet Backup'!A16</f>
         <v>39813</v>
@@ -12084,7 +12276,7 @@
         <v>12064.573118430995</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="124">
         <f>'ACX Fact Sheet Backup'!A17</f>
         <v>39844</v>
@@ -12098,7 +12290,7 @@
         <v>12055.995800955032</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="124">
         <f>'ACX Fact Sheet Backup'!A18</f>
         <v>39872</v>
@@ -12112,7 +12304,7 @@
         <v>12126.022557064773</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="124">
         <f>'ACX Fact Sheet Backup'!A19</f>
         <v>39903</v>
@@ -12126,7 +12318,7 @@
         <v>11987.50528081114</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="124">
         <f>'ACX Fact Sheet Backup'!A20</f>
         <v>39933</v>
@@ -12140,7 +12332,7 @@
         <v>11780.753523741254</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="124">
         <f>'ACX Fact Sheet Backup'!A21</f>
         <v>39964</v>
@@ -12154,7 +12346,7 @@
         <v>11964.973819978755</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="124">
         <f>'ACX Fact Sheet Backup'!A22</f>
         <v>39994</v>
@@ -12168,7 +12360,7 @@
         <v>11653.245938576172</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="124">
         <f>'ACX Fact Sheet Backup'!A23</f>
         <v>40025</v>
@@ -12182,7 +12374,7 @@
         <v>11787.410546259913</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="124">
         <f>'ACX Fact Sheet Backup'!A24</f>
         <v>40056</v>
@@ -12196,7 +12388,7 @@
         <v>11810.198046419937</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="124">
         <f>'ACX Fact Sheet Backup'!A25</f>
         <v>40086</v>
@@ -12210,7 +12402,7 @@
         <v>12060.732528516386</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="124">
         <f>'ACX Fact Sheet Backup'!A26</f>
         <v>40117</v>
@@ -12224,7 +12416,7 @@
         <v>11907.877049914872</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="124">
         <f>'ACX Fact Sheet Backup'!A27</f>
         <v>40147</v>
@@ -12238,7 +12430,7 @@
         <v>12431.861533931618</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="124">
         <f>'ACX Fact Sheet Backup'!A28</f>
         <v>40178</v>
@@ -12252,7 +12444,7 @@
         <v>12176.206265282353</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="124">
         <f>'ACX Fact Sheet Backup'!A29</f>
         <v>40209</v>
@@ -12266,7 +12458,7 @@
         <v>11697.156683266556</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="124">
         <f>'ACX Fact Sheet Backup'!A30</f>
         <v>40237</v>
@@ -12280,7 +12472,7 @@
         <v>11778.577189456306</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="124">
         <f>'ACX Fact Sheet Backup'!A31</f>
         <v>40268</v>
@@ -12294,7 +12486,7 @@
         <v>12038.073048020184</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="124">
         <f>'ACX Fact Sheet Backup'!A32</f>
         <v>40298</v>
@@ -12308,7 +12500,7 @@
         <v>12069.181826328531</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="124">
         <f>'ACX Fact Sheet Backup'!A33</f>
         <v>40329</v>
@@ -12322,7 +12514,7 @@
         <v>12209.619397539471</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="124">
         <f>'ACX Fact Sheet Backup'!A34</f>
         <v>40359</v>
@@ -12336,7 +12528,7 @@
         <v>12274.269327768754</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="124">
         <f>'ACX Fact Sheet Backup'!A35</f>
         <v>40390</v>
@@ -12350,7 +12542,7 @@
         <v>11982.640533585967</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="124">
         <f>'ACX Fact Sheet Backup'!A36</f>
         <v>40421</v>
@@ -12364,7 +12556,7 @@
         <v>12324.325016322515</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="124">
         <f>'ACX Fact Sheet Backup'!A37</f>
         <v>40451</v>
@@ -12378,7 +12570,7 @@
         <v>12431.349455276339</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="124">
         <f>'ACX Fact Sheet Backup'!A38</f>
         <v>40482</v>
@@ -12392,7 +12584,7 @@
         <v>12871.097000499287</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="124">
         <f>'ACX Fact Sheet Backup'!A39</f>
         <v>40512</v>
@@ -12406,7 +12598,7 @@
         <v>12282.206546925618</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="124">
         <f>'ACX Fact Sheet Backup'!A40</f>
         <v>40543</v>
@@ -12420,7 +12612,7 @@
         <v>12780.843137505932</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="124">
         <f>'ACX Fact Sheet Backup'!A41</f>
         <v>40574</v>
@@ -12434,7 +12626,7 @@
         <v>12801.966382036291</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
         <f>'ACX Fact Sheet Backup'!A42</f>
         <v>40602</v>
@@ -12448,7 +12640,7 @@
         <v>12935.490891400928</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="124">
         <f>'ACX Fact Sheet Backup'!A43</f>
         <v>40633</v>
@@ -12462,7 +12654,7 @@
         <v>12465.402685852558</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="124">
         <f>'ACX Fact Sheet Backup'!A44</f>
         <v>40663</v>
@@ -12476,7 +12668,7 @@
         <v>12835.379514293405</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="124">
         <f>'ACX Fact Sheet Backup'!A45</f>
         <v>40694</v>
@@ -12490,7 +12682,7 @@
         <v>12383.726140335164</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="124">
         <f>'ACX Fact Sheet Backup'!A46</f>
         <v>40724</v>
@@ -12504,7 +12696,7 @@
         <v>11999.923188201716</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="124">
         <f>'ACX Fact Sheet Backup'!A47</f>
         <v>40755</v>
@@ -12518,7 +12710,7 @@
         <v>12374.764763867739</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="124">
         <f>'ACX Fact Sheet Backup'!A48</f>
         <v>40786</v>
@@ -12532,7 +12724,7 @@
         <v>12381.293766722578</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="124">
         <f>'ACX Fact Sheet Backup'!A49</f>
         <v>40816</v>
@@ -12546,7 +12738,7 @@
         <v>12631.060130836106</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="124">
         <f>'ACX Fact Sheet Backup'!A50</f>
         <v>40847</v>
@@ -12560,7 +12752,7 @@
         <v>12103.36307656857</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="124">
         <f>'ACX Fact Sheet Backup'!A51</f>
         <v>40877</v>
@@ -12574,7 +12766,7 @@
         <v>12153.674804449973</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="124">
         <f>'ACX Fact Sheet Backup'!A52</f>
         <v>40908</v>
@@ -12588,7 +12780,7 @@
         <v>12161.099944951555</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="124">
         <f>'ACX Fact Sheet Backup'!A53</f>
         <v>40939</v>
@@ -12602,7 +12794,7 @@
         <v>12123.718203116008</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="124">
         <f>'ACX Fact Sheet Backup'!A54</f>
         <v>40968</v>
@@ -12616,7 +12808,7 @@
         <v>12238.167782571414</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="124">
         <f>'ACX Fact Sheet Backup'!A55</f>
         <v>40999</v>
@@ -12630,7 +12822,7 @@
         <v>12065.341236413924</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="124">
         <f>'ACX Fact Sheet Backup'!A56</f>
         <v>41029</v>
@@ -12644,7 +12836,7 @@
         <v>11918.886741003429</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="124">
         <f>'ACX Fact Sheet Backup'!A57</f>
         <v>41060</v>
@@ -12658,7 +12850,7 @@
         <v>12217.428597032515</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="124">
         <f>'ACX Fact Sheet Backup'!A58</f>
         <v>41090</v>
@@ -12672,7 +12864,7 @@
         <v>11530.475080972446</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="124">
         <f>'ACX Fact Sheet Backup'!A59</f>
         <v>41121</v>
@@ -12686,7 +12878,7 @@
         <v>11687.555208480035</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="124">
         <f>'ACX Fact Sheet Backup'!A60</f>
         <v>41152</v>
@@ -12700,7 +12892,7 @@
         <v>11511.784210054677</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="124">
         <f>'ACX Fact Sheet Backup'!A61</f>
         <v>41182</v>
@@ -12714,7 +12906,7 @@
         <v>11359.824869099906</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="124">
         <f>'ACX Fact Sheet Backup'!A62</f>
         <v>41213</v>
@@ -12728,7 +12920,7 @@
         <v>11085.73476886051</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="124">
         <f>'ACX Fact Sheet Backup'!A63</f>
         <v>41243</v>
@@ -12742,7 +12934,7 @@
         <v>11013.275639138184</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="124">
         <f>'ACX Fact Sheet Backup'!A64</f>
         <v>41274</v>
@@ -12756,7 +12948,7 @@
         <v>11194.167424116358</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="124">
         <f>'ACX Fact Sheet Backup'!A65</f>
         <v>41305</v>
@@ -12770,7 +12962,7 @@
         <v>11439.197060668532</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="124">
         <f>'ACX Fact Sheet Backup'!A66</f>
         <v>41333</v>
@@ -12784,7 +12976,7 @@
         <v>11451.358928731466</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="124">
         <f>'ACX Fact Sheet Backup'!A67</f>
         <v>41364</v>
@@ -12798,7 +12990,7 @@
         <v>11618.424590017041</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="124">
         <f>'ACX Fact Sheet Backup'!A68</f>
         <v>41394</v>
@@ -12812,7 +13004,7 @@
         <v>11852.444535480665</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="124">
         <f>'ACX Fact Sheet Backup'!A69</f>
         <v>41425</v>
@@ -12826,7 +13018,7 @@
         <v>11801.492709280159</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="124">
         <f>'ACX Fact Sheet Backup'!A70</f>
         <v>41455</v>
@@ -12840,7 +13032,7 @@
         <v>11883.041235133729</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="124">
         <f>'ACX Fact Sheet Backup'!A71</f>
         <v>41486</v>
@@ -12854,7 +13046,7 @@
         <v>11740.043270646383</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="124">
         <f>'ACX Fact Sheet Backup'!A72</f>
         <v>41517</v>
@@ -12868,7 +13060,7 @@
         <v>11646.076837402237</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="124">
         <f>'ACX Fact Sheet Backup'!A73</f>
         <v>41547</v>
@@ -12882,7 +13074,7 @@
         <v>11610.487370860175</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="124">
         <f>'ACX Fact Sheet Backup'!A74</f>
         <v>41578</v>
@@ -12896,7 +13088,7 @@
         <v>11556.463072727984</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="124">
         <f>'ACX Fact Sheet Backup'!A75</f>
         <v>41608</v>
@@ -12910,7 +13102,7 @@
         <v>11912.10169882095</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="124">
         <f>'ACX Fact Sheet Backup'!A76</f>
         <v>41639</v>
@@ -12924,7 +13116,7 @@
         <v>12032.056123820632</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="124">
         <f>'ACX Fact Sheet Backup'!A77</f>
         <v>41670</v>
@@ -12938,7 +13130,7 @@
         <v>11617.016373715016</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="124">
         <f>'ACX Fact Sheet Backup'!A78</f>
         <v>41698</v>
@@ -12952,7 +13144,7 @@
         <v>11570.801275075866</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="124">
         <f>'ACX Fact Sheet Backup'!A79</f>
         <v>41729</v>
@@ -12966,7 +13158,7 @@
         <v>11426.395094286496</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="124">
         <f>'ACX Fact Sheet Backup'!A80</f>
         <v>41759</v>
@@ -12980,7 +13172,7 @@
         <v>11448.54249612742</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="124">
         <f>'ACX Fact Sheet Backup'!A81</f>
         <v>41790</v>
@@ -12994,7 +13186,7 @@
         <v>11502.182735268154</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="124">
         <f>'ACX Fact Sheet Backup'!A82</f>
         <v>41820</v>
@@ -13008,7 +13200,7 @@
         <v>11502.438774595796</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="124">
         <f>'ACX Fact Sheet Backup'!A83</f>
         <v>41851</v>
@@ -13022,7 +13214,7 @@
         <v>11528.554786015149</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="124">
         <f>'ACX Fact Sheet Backup'!A84</f>
         <v>41882</v>
@@ -13036,7 +13228,7 @@
         <v>11901.348047060048</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="124">
         <f>'ACX Fact Sheet Backup'!A85</f>
         <v>41912</v>
@@ -13050,7 +13242,7 @@
         <v>12411.506407384195</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="124">
         <f>'ACX Fact Sheet Backup'!A86</f>
         <v>41943</v>
@@ -13064,7 +13256,7 @@
         <v>12552.712096578056</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="124">
         <f>'ACX Fact Sheet Backup'!A87</f>
         <v>41973</v>
@@ -13078,7 +13270,7 @@
         <v>13457.171021468923</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="124">
         <f>'ACX Fact Sheet Backup'!A88</f>
         <v>42004</v>
@@ -13092,7 +13284,7 @@
         <v>13929.69160062988</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="124">
         <f>'ACX Fact Sheet Backup'!A89</f>
         <v>42035</v>
@@ -13106,7 +13298,7 @@
         <v>15071.755021571338</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="124">
         <f>'ACX Fact Sheet Backup'!A90</f>
         <v>42063</v>
@@ -13120,7 +13312,7 @@
         <v>14874.604739287981</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="124">
         <f>'ACX Fact Sheet Backup'!A91</f>
         <v>42094</v>
@@ -13134,7 +13326,7 @@
         <v>15511.118507802825</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="124">
         <f>'ACX Fact Sheet Backup'!A92</f>
         <v>42124</v>
@@ -13148,7 +13340,7 @@
         <v>14896.368082137442</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="124">
         <f>'ACX Fact Sheet Backup'!A93</f>
         <v>42155</v>
@@ -13162,7 +13354,7 @@
         <v>15017.218644783865</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="124">
         <f>'ACX Fact Sheet Backup'!A94</f>
         <v>42185</v>
@@ -13176,7 +13368,7 @@
         <v>14347.035704684266</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="124">
         <f>'ACX Fact Sheet Backup'!A95</f>
         <v>42216</v>
@@ -13190,7 +13382,7 @@
         <v>14721.621241022649</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="124">
         <f>'ACX Fact Sheet Backup'!A96</f>
         <v>42247</v>
@@ -13204,7 +13396,7 @@
         <v>14466.862110020125</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="124">
         <f>'ACX Fact Sheet Backup'!A97</f>
         <v>42277</v>
@@ -13218,7 +13410,7 @@
         <v>14803.553825867681</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="124">
         <f>'ACX Fact Sheet Backup'!A98</f>
         <v>42308</v>
@@ -13232,7 +13424,7 @@
         <v>14229.385633633354</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="124">
         <f>'ACX Fact Sheet Backup'!A99</f>
         <v>42338</v>
@@ -13246,7 +13438,7 @@
         <v>14525.367096386033</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="124">
         <f>'ACX Fact Sheet Backup'!A100</f>
         <v>42369</v>
@@ -13260,7 +13452,7 @@
         <v>14426.023837261431</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="124">
         <f>'ACX Fact Sheet Backup'!A101</f>
         <v>42400</v>
@@ -13274,7 +13466,7 @@
         <v>14903.537183311388</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="124">
         <f>'ACX Fact Sheet Backup'!A102</f>
         <v>42429</v>
@@ -13288,7 +13480,7 @@
         <v>15355.702635924908</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="124">
         <f>'ACX Fact Sheet Backup'!A103</f>
         <v>42460</v>
@@ -13302,7 +13494,7 @@
         <v>15119.890415167798</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="124">
         <f>'ACX Fact Sheet Backup'!A104</f>
         <v>42490</v>
@@ -13316,7 +13508,7 @@
         <v>15205.535570263623</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="124">
         <f>'ACX Fact Sheet Backup'!A105</f>
         <v>42521</v>
@@ -13330,7 +13522,7 @@
         <v>14745.688937820878</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="124">
         <f>'ACX Fact Sheet Backup'!A106</f>
         <v>42551</v>
@@ -13344,7 +13536,7 @@
         <v>15327.666329548247</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="124">
         <f>'ACX Fact Sheet Backup'!A107</f>
         <v>42582</v>
@@ -13358,7 +13550,7 @@
         <v>15334.195332403086</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="124">
         <f>'ACX Fact Sheet Backup'!A108</f>
         <v>42613</v>
@@ -13372,7 +13564,7 @@
         <v>14947.575947665589</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="124">
         <f>'ACX Fact Sheet Backup'!A109</f>
         <v>42643</v>
@@ -13386,7 +13578,7 @@
         <v>15015.426369490382</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="124">
         <f>'ACX Fact Sheet Backup'!A110</f>
         <v>42674</v>
@@ -13400,7 +13592,7 @@
         <v>14717.652631444218</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="124">
         <f>'ACX Fact Sheet Backup'!A111</f>
         <v>42704</v>
@@ -13414,7 +13606,7 @@
         <v>14892.911551214293</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="124">
         <f>'ACX Fact Sheet Backup'!A112</f>
         <v>42735</v>
@@ -13428,7 +13620,7 @@
         <v>15030.020611165901</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="124">
         <f>'ACX Fact Sheet Backup'!A113</f>
         <v>42766</v>
@@ -13442,7 +13634,7 @@
         <v>14577.215060233279</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="124">
         <f>'ACX Fact Sheet Backup'!A114</f>
         <v>42794</v>
@@ -13456,7 +13648,7 @@
         <v>14696.785426241498</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="124">
         <f>'ACX Fact Sheet Backup'!A115</f>
         <v>42825</v>
@@ -13470,7 +13662,7 @@
         <v>14408.869202309501</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="124">
         <f>'ACX Fact Sheet Backup'!A116</f>
         <v>42855</v>
@@ -13484,7 +13676,7 @@
         <v>14229.641672960994</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="124">
         <f>'ACX Fact Sheet Backup'!A117</f>
         <v>42886</v>
@@ -13498,7 +13690,7 @@
         <v>14245.260071947079</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="124">
         <f>'ACX Fact Sheet Backup'!A118</f>
         <v>42916</v>
@@ -13512,7 +13704,7 @@
         <v>13967.969480112173</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="124">
         <f>'ACX Fact Sheet Backup'!A119</f>
         <v>42947</v>
@@ -13526,7 +13718,7 @@
         <v>14320.151575281992</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="124">
         <f>'ACX Fact Sheet Backup'!A120</f>
         <v>42978</v>
@@ -13540,7 +13732,7 @@
         <v>14646.985777015378</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="124">
         <f>'ACX Fact Sheet Backup'!A121</f>
         <v>43008</v>
@@ -13554,7 +13746,7 @@
         <v>14223.240689769977</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="124">
         <f>'ACX Fact Sheet Backup'!A122</f>
         <v>43039</v>
@@ -13568,7 +13760,7 @@
         <v>14395.555157272187</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="124">
         <f>'ACX Fact Sheet Backup'!A123</f>
         <v>43069</v>
@@ -13582,7 +13774,7 @@
         <v>14507.060284459723</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="124">
         <f>'ACX Fact Sheet Backup'!A124</f>
         <v>43100</v>
@@ -13596,7 +13788,7 @@
         <v>14691.408600361045</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="124">
         <f>'ACX Fact Sheet Backup'!A125</f>
         <v>43131</v>
@@ -13610,7 +13802,7 @@
         <v>15580.633185257288</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="124">
         <f>'ACX Fact Sheet Backup'!A126</f>
         <v>43159</v>
@@ -13624,7 +13816,7 @@
         <v>14320.151575281992</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="124">
         <f>'ACX Fact Sheet Backup'!A127</f>
         <v>43190</v>
@@ -13638,7 +13830,7 @@
         <v>13941.59742936518</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="124">
         <f>'ACX Fact Sheet Backup'!A128</f>
         <v>43220</v>
@@ -13652,7 +13844,7 @@
         <v>13518.36442077506</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="124">
         <f>'ACX Fact Sheet Backup'!A129</f>
         <v>43251</v>
@@ -13666,7 +13858,7 @@
         <v>13368.197355113774</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="124">
         <f>'ACX Fact Sheet Backup'!A130</f>
         <v>43281</v>
@@ -13680,7 +13872,7 @@
         <v>13532.446583795301</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="124">
         <f>'ACX Fact Sheet Backup'!A131</f>
         <v>43312</v>
@@ -13694,7 +13886,7 @@
         <v>13449.233802312065</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="124">
         <f>'ACX Fact Sheet Backup'!A132</f>
         <v>43343</v>
@@ -13708,7 +13900,7 @@
         <v>13636.270531153617</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="124">
         <f>'ACX Fact Sheet Backup'!A133</f>
         <v>43373</v>
@@ -13722,7 +13914,7 @@
         <v>13559.20269353376</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="124">
         <f>'ACX Fact Sheet Backup'!A134</f>
         <v>43404</v>
@@ -13736,7 +13928,7 @@
         <v>13371.141807381646</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="124">
         <f>'ACX Fact Sheet Backup'!A135</f>
         <v>43434</v>
@@ -13750,7 +13942,7 @@
         <v>13252.979657675451</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="124">
         <f>'ACX Fact Sheet Backup'!A136</f>
         <v>43465</v>
@@ -13764,7 +13956,7 @@
         <v>14044.653258740575</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="124">
         <f>'ACX Fact Sheet Backup'!A137</f>
         <v>43496</v>
@@ -13778,7 +13970,7 @@
         <v>13455.378746175444</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="124">
         <f>'ACX Fact Sheet Backup'!A138</f>
         <v>43524</v>
@@ -13792,7 +13984,7 @@
         <v>13295.994264719091</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="124">
         <f>'ACX Fact Sheet Backup'!A139</f>
         <v>43555</v>
@@ -13806,7 +13998,7 @@
         <v>13622.060348469557</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="124">
         <f>'ACX Fact Sheet Backup'!A140</f>
         <v>43585</v>
@@ -13820,7 +14012,7 @@
         <v>13689.910770294349</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="124">
         <f>'ACX Fact Sheet Backup'!A141</f>
         <v>43616</v>
@@ -13834,7 +14026,7 @@
         <v>13791.942442359177</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="124">
         <f>'ACX Fact Sheet Backup'!A142</f>
         <v>43646</v>
@@ -13848,7 +14040,7 @@
         <v>13902.935490891432</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="124">
         <f>'ACX Fact Sheet Backup'!A143</f>
         <v>43677</v>
@@ -13862,7 +14054,7 @@
         <v>14121.080998041331</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="124">
         <f>'ACX Fact Sheet Backup'!A144</f>
         <v>43708</v>
@@ -13876,7 +14068,7 @@
         <v>14640.968852815828</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="124">
         <f>'ACX Fact Sheet Backup'!A145</f>
         <v>43738</v>
@@ -13890,7 +14082,7 @@
         <v>13986.91639035759</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="124">
         <f>'ACX Fact Sheet Backup'!A146</f>
         <v>43769</v>
@@ -13904,7 +14096,7 @@
         <v>13566.88387336298</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="124">
         <f>'ACX Fact Sheet Backup'!A147</f>
         <v>43799</v>
@@ -13918,7 +14110,7 @@
         <v>13490.584153726042</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="124">
         <f>'ACX Fact Sheet Backup'!A148</f>
         <v>43830</v>
@@ -13932,7 +14124,7 @@
         <v>13403.786821655836</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="124">
         <f>'ACX Fact Sheet Backup'!A149</f>
         <v>43861</v>
@@ -13946,7 +14138,7 @@
         <v>13046.227900605563</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="124">
         <f>'ACX Fact Sheet Backup'!A150</f>
         <v>43890</v>
@@ -13960,7 +14152,7 @@
         <v>12788.652336998992</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="124">
         <f>'ACX Fact Sheet Backup'!A151</f>
         <v>43921</v>
@@ -13974,7 +14166,7 @@
         <v>13205.740401725734</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="124">
         <f>'ACX Fact Sheet Backup'!A152</f>
         <v>43951</v>
@@ -13988,7 +14180,7 @@
         <v>13065.302830514796</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="124">
         <f>'ACX Fact Sheet Backup'!A153</f>
         <v>43982</v>
@@ -14002,7 +14194,7 @@
         <v>12980.553813065715</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="124">
         <f>'ACX Fact Sheet Backup'!A154</f>
         <v>44012</v>
@@ -14016,7 +14208,7 @@
         <v>12664.217223765598</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="124">
         <f>'ACX Fact Sheet Backup'!A155</f>
         <v>44043</v>
@@ -14030,7 +14222,7 @@
         <v>12893.500441667868</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="124">
         <f>'ACX Fact Sheet Backup'!A156</f>
         <v>44074</v>
@@ -14044,7 +14236,7 @@
         <v>13150.691946282977</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="124">
         <f>'ACX Fact Sheet Backup'!A157</f>
         <v>44104</v>
@@ -14058,7 +14250,7 @@
         <v>12805.422912959457</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="124">
         <f>'ACX Fact Sheet Backup'!A158</f>
         <v>44135</v>
@@ -14072,7 +14264,7 @@
         <v>12833.075160344655</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="124">
         <f>'ACX Fact Sheet Backup'!A159</f>
         <v>44165</v>
@@ -14086,7 +14278,7 @@
         <v>13096.155569495502</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="124">
         <f>'ACX Fact Sheet Backup'!A160</f>
         <v>44196</v>
@@ -14098,6 +14290,48 @@
       <c r="C160" s="116">
         <f>'ACX Fact Sheet Backup'!K160</f>
         <v>13646.000025603962</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="124">
+        <f>'ACX Fact Sheet Backup'!A161</f>
+        <v>44227</v>
+      </c>
+      <c r="B161" s="116">
+        <f>'ACX Fact Sheet Backup'!B161</f>
+        <v>15881</v>
+      </c>
+      <c r="C161" s="116">
+        <f>'ACX Fact Sheet Backup'!K161</f>
+        <v>13611.946795027745</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="124">
+        <f>'ACX Fact Sheet Backup'!A162</f>
+        <v>44255</v>
+      </c>
+      <c r="B162" s="116">
+        <f>'ACX Fact Sheet Backup'!B162</f>
+        <v>16426</v>
+      </c>
+      <c r="C162" s="116">
+        <f>'ACX Fact Sheet Backup'!K162</f>
+        <v>14552.507265115953</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="124">
+        <f>'ACX Fact Sheet Backup'!A163</f>
+        <v>44286</v>
+      </c>
+      <c r="B163" s="116">
+        <f>'ACX Fact Sheet Backup'!B163</f>
+        <v>16672</v>
+      </c>
+      <c r="C163" s="116">
+        <f>'ACX Fact Sheet Backup'!K163</f>
+        <v>14710.35551060646</v>
       </c>
     </row>
   </sheetData>
@@ -14113,17 +14347,17 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'ACX Fact Sheet Backup'!R20</f>
         <v>Share Class/Benchmark</v>
@@ -14152,105 +14386,105 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="17">
         <f>'ACX Fact Sheet Backup'!S21</f>
-        <v>4.8486863984037232</v>
+        <v>5.759959401167225</v>
       </c>
       <c r="C2" s="17">
         <f>'ACX Fact Sheet Backup'!T21</f>
-        <v>4.8486863984037232</v>
+        <v>19.21</v>
       </c>
       <c r="D2" s="17">
         <f>'ACX Fact Sheet Backup'!U21</f>
-        <v>1.1337314978747015</v>
+        <v>1.679281433361135</v>
       </c>
       <c r="E2" s="17">
         <f>'ACX Fact Sheet Backup'!V21</f>
-        <v>1.1494387884944057</v>
+        <v>1.4061667107870379</v>
       </c>
       <c r="F2" s="17">
         <f>'ACX Fact Sheet Backup'!W21</f>
-        <v>3.5172294509063118</v>
+        <v>3.8832832670883555</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="17">
         <f>'ACX Fact Sheet Backup'!S22</f>
-        <v>1.807050553480849</v>
+        <v>7.7997617104312633</v>
       </c>
       <c r="C3" s="17">
         <f>'ACX Fact Sheet Backup'!T22</f>
-        <v>1.807050553480849</v>
+        <v>11.393644453923258</v>
       </c>
       <c r="D3" s="17">
         <f>'ACX Fact Sheet Backup'!U22</f>
-        <v>-1.1055898558643751</v>
+        <v>-0.54768313280509906</v>
       </c>
       <c r="E3" s="17">
         <f>'ACX Fact Sheet Backup'!V22</f>
-        <v>0.65713995477645337</v>
+        <v>1.669733599622103</v>
       </c>
       <c r="F3" s="17">
         <f>'ACX Fact Sheet Backup'!W22</f>
-        <v>2.3890638503851314</v>
+        <v>2.9185484431001329</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="17">
         <f>'ACX Fact Sheet Backup'!S23</f>
-        <v>0.67</v>
+        <v>0.02</v>
       </c>
       <c r="C4" s="17">
         <f>'ACX Fact Sheet Backup'!T23</f>
-        <v>0.67</v>
+        <v>0.12</v>
       </c>
       <c r="D4" s="17">
         <f>'ACX Fact Sheet Backup'!U23</f>
-        <v>1.2</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="E4" s="17">
         <f>'ACX Fact Sheet Backup'!V23</f>
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F4" s="17">
         <f>'ACX Fact Sheet Backup'!W23</f>
-        <v>0.72</v>
+        <v>0.71000000000000008</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="17">
         <f>'ACX Fact Sheet Backup'!S24</f>
-        <v>4.6100000000000003</v>
+        <v>5.7</v>
       </c>
       <c r="C5" s="17">
         <f>'ACX Fact Sheet Backup'!T24</f>
-        <v>4.6100000000000003</v>
+        <v>18.89</v>
       </c>
       <c r="D5" s="17">
         <f>'ACX Fact Sheet Backup'!U24</f>
-        <v>0.88</v>
+        <v>1.41</v>
       </c>
       <c r="E5" s="17" t="str">
         <f>'ACX Fact Sheet Backup'!V24</f>
@@ -14258,27 +14492,27 @@
       </c>
       <c r="F5" s="17">
         <f>'ACX Fact Sheet Backup'!W24</f>
-        <v>-0.01</v>
+        <v>0.98</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="17">
         <f>'ACX Fact Sheet Backup'!S25</f>
-        <v>3.79</v>
+        <v>5.5</v>
       </c>
       <c r="C6" s="17">
         <f>'ACX Fact Sheet Backup'!T25</f>
-        <v>3.79</v>
+        <v>17.95</v>
       </c>
       <c r="D6" s="17">
         <f>'ACX Fact Sheet Backup'!U25</f>
-        <v>0.13</v>
+        <v>0.66</v>
       </c>
       <c r="E6" s="17" t="str">
         <f>'ACX Fact Sheet Backup'!V25</f>
@@ -14286,27 +14520,27 @@
       </c>
       <c r="F6" s="17">
         <f>'ACX Fact Sheet Backup'!W25</f>
-        <v>-0.79</v>
+        <v>0.19</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="17">
         <f>'ACX Fact Sheet Backup'!S26</f>
-        <v>1.807050553480849</v>
+        <v>7.7997617104312633</v>
       </c>
       <c r="C7" s="17">
         <f>'ACX Fact Sheet Backup'!T26</f>
-        <v>1.807050553480849</v>
+        <v>11.393644453923258</v>
       </c>
       <c r="D7" s="17">
         <f>'ACX Fact Sheet Backup'!U26</f>
-        <v>-1.1055898558643751</v>
+        <v>-0.54768313280509906</v>
       </c>
       <c r="E7" s="17" t="str">
         <f>'ACX Fact Sheet Backup'!V26</f>
@@ -14314,27 +14548,27 @@
       </c>
       <c r="F7" s="17">
         <f>'ACX Fact Sheet Backup'!W26</f>
-        <v>-1.3407817765194174</v>
+        <v>4.1906847476802511E-2</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="17">
         <f>'ACX Fact Sheet Backup'!S27</f>
-        <v>0.67</v>
+        <v>0.02</v>
       </c>
       <c r="C8" s="17">
         <f>'ACX Fact Sheet Backup'!T27</f>
-        <v>0.67</v>
+        <v>0.12</v>
       </c>
       <c r="D8" s="17">
         <f>'ACX Fact Sheet Backup'!U27</f>
-        <v>1.2</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="E8" s="17" t="str">
         <f>'ACX Fact Sheet Backup'!V27</f>
@@ -14342,27 +14576,27 @@
       </c>
       <c r="F8" s="17">
         <f>'ACX Fact Sheet Backup'!W27</f>
-        <v>1.1200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="17">
         <f>'ACX Fact Sheet Backup'!S28</f>
-        <v>-1.38</v>
+        <v>-0.38</v>
       </c>
       <c r="C9" s="17">
         <f>'ACX Fact Sheet Backup'!T28</f>
-        <v>-1.38</v>
+        <v>12.07</v>
       </c>
       <c r="D9" s="17">
         <f>'ACX Fact Sheet Backup'!U28</f>
-        <v>-0.31</v>
+        <v>0.22</v>
       </c>
       <c r="E9" s="17" t="str">
         <f>'ACX Fact Sheet Backup'!V28</f>
@@ -14370,7 +14604,7 @@
       </c>
       <c r="F9" s="17">
         <f>'ACX Fact Sheet Backup'!W28</f>
-        <v>-1.1000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -14389,17 +14623,17 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -14413,48 +14647,48 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'ACX Fact Sheet Backup'!R31</f>
         <v>Standard Deviation</v>
       </c>
       <c r="B2" s="116">
         <f>'ACX Fact Sheet Backup'!S31*100</f>
-        <v>8.9265372409718164</v>
+        <v>8.8894159764906924</v>
       </c>
       <c r="C2" s="116">
         <f>'ACX Fact Sheet Backup'!T31*100</f>
-        <v>15.926915632697394</v>
+        <v>15.823187497632704</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'ACX Fact Sheet Backup'!R32</f>
         <v>Sharpe Ratio</v>
       </c>
       <c r="B3" s="116">
         <f>'ACX Fact Sheet Backup'!S32</f>
-        <v>0.38592002227856814</v>
+        <v>0.43485233195425133</v>
       </c>
       <c r="C3" s="116">
         <f>'ACX Fact Sheet Backup'!T32</f>
-        <v>0.57560201237826802</v>
+        <v>0.60231609784601303</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>'ACX Fact Sheet Backup'!R33</f>
         <v>Alpha (vs. S&amp;P 500 TR)</v>
       </c>
       <c r="B4" s="116">
         <f>'ACX Fact Sheet Backup'!S33</f>
-        <v>2.6505379791660384</v>
+        <v>3.0183087887189055</v>
       </c>
       <c r="C4" s="116" t="str">
         <f>'ACX Fact Sheet Backup'!T33</f>
@@ -14464,14 +14698,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>'ACX Fact Sheet Backup'!R34</f>
         <v>Beta vs. (vs. S&amp;P 500 TR)</v>
       </c>
       <c r="B5" s="116">
         <f>'ACX Fact Sheet Backup'!S34</f>
-        <v>8.6652398829498031E-2</v>
+        <v>8.8900802214935987E-2</v>
       </c>
       <c r="C5" s="116" t="str">
         <f>'ACX Fact Sheet Backup'!T34</f>
@@ -14481,14 +14715,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>'ACX Fact Sheet Backup'!R35</f>
         <v>R-squared (vs. S&amp;P 500 TR)</v>
       </c>
       <c r="B6" s="116">
         <f>'ACX Fact Sheet Backup'!S35</f>
-        <v>2.4208805751558111E-2</v>
+        <v>2.5355059651576878E-2</v>
       </c>
       <c r="C6" s="116" t="str">
         <f>'ACX Fact Sheet Backup'!T35</f>
@@ -14498,7 +14732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>'ACX Fact Sheet Backup'!R36</f>
         <v>Maximum Drawdown</v>
